--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -556,20 +556,14 @@
         <v>4.713333333333336</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>4.72</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -597,20 +591,14 @@
         <v>4.69666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>4.69</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -638,20 +626,14 @@
         <v>4.680000000000004</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>4.67</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -679,20 +661,14 @@
         <v>4.686666666666671</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.69</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -720,20 +696,14 @@
         <v>4.716666666666671</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>4.76</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -769,12 +739,10 @@
       <c r="J10" t="n">
         <v>4.76</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -808,12 +776,14 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.76</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -843,18 +813,18 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>4.76</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -884,20 +854,14 @@
         <v>4.750000000000005</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.74</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -925,20 +889,14 @@
         <v>4.746666666666672</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.74</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -966,20 +924,14 @@
         <v>4.750000000000005</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>4.77</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1007,20 +959,14 @@
         <v>4.770000000000005</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1048,20 +994,14 @@
         <v>4.776666666666672</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>4.77</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1089,20 +1029,14 @@
         <v>4.770000000000004</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1130,20 +1064,14 @@
         <v>4.756666666666671</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>4.76</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1171,20 +1099,14 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>4.76</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1212,20 +1134,14 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1253,20 +1169,14 @@
         <v>4.753333333333339</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1294,20 +1204,14 @@
         <v>4.76333333333334</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>4.79</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1335,20 +1239,14 @@
         <v>4.790000000000006</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>4.79</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1376,20 +1274,14 @@
         <v>4.806666666666673</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.81</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1417,20 +1309,14 @@
         <v>4.816666666666674</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>4.82</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1458,20 +1344,14 @@
         <v>4.810000000000007</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.81</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1506,11 +1386,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1545,11 +1421,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1584,11 +1456,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1623,11 +1491,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1526,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1697,15 +1557,11 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1736,15 +1592,11 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1779,11 +1631,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1818,11 +1666,7 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1857,11 +1701,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1736,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1935,11 +1771,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1970,16 +1802,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3999,17 +3829,13 @@
         <v>4.766666666666669</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K98" t="n">
-        <v>4.77</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
@@ -4038,22 +3864,14 @@
         <v>4.776666666666669</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="K99" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4081,22 +3899,14 @@
         <v>4.786666666666669</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K100" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4124,17 +3934,13 @@
         <v>4.793333333333336</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4.79</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
@@ -4169,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4210,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4420,17 +4214,13 @@
         <v>4.750000000000003</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K109" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
@@ -4459,22 +4249,14 @@
         <v>4.74666666666667</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K110" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4502,22 +4284,14 @@
         <v>4.743333333333337</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K111" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4545,17 +4319,13 @@
         <v>4.740000000000005</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K112" t="n">
-        <v>4.74</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
@@ -4584,22 +4354,14 @@
         <v>4.746666666666671</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K113" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4627,22 +4389,14 @@
         <v>4.75666666666667</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K114" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4676,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="K115" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
@@ -4715,10 +4469,10 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="K116" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4758,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="K117" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4795,17 +4549,13 @@
         <v>4.823333333333338</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K118" t="n">
-        <v>4.82</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
@@ -4840,14 +4590,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4881,14 +4625,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4922,14 +4660,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4963,14 +4695,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5004,14 +4730,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5045,14 +4765,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5086,14 +4800,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5127,14 +4835,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4870,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5209,14 +4905,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5250,14 +4940,8 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5291,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5332,14 +5010,8 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5373,14 +5045,8 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +5080,8 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5455,14 +5115,8 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5496,14 +5150,8 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5537,14 +5185,8 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5578,14 +5220,8 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5619,14 +5255,8 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5657,19 +5287,13 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>0.995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -7025,17 +6649,13 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K178" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
@@ -7064,280 +6684,240 @@
         <v>4.760000000000005</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="K179" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F180" t="n">
+        <v>24561.79</v>
+      </c>
+      <c r="G180" t="n">
+        <v>4.760000000000005</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F181" t="n">
+        <v>91047.3336</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4.763333333333338</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F182" t="n">
+        <v>25643.2766</v>
+      </c>
+      <c r="G182" t="n">
+        <v>4.75666666666667</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3769.489</v>
+      </c>
+      <c r="G183" t="n">
+        <v>4.75666666666667</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K183" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F184" t="n">
+        <v>191.8946</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4.753333333333337</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F180" t="n">
-        <v>24561.79</v>
-      </c>
-      <c r="G180" t="n">
-        <v>4.760000000000005</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F185" t="n">
+        <v>100</v>
+      </c>
+      <c r="G185" t="n">
+        <v>4.763333333333337</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D181" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E181" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F181" t="n">
-        <v>91047.3336</v>
-      </c>
-      <c r="G181" t="n">
-        <v>4.763333333333338</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K181" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E182" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F182" t="n">
-        <v>25643.2766</v>
-      </c>
-      <c r="G182" t="n">
-        <v>4.75666666666667</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K182" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D183" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3769.489</v>
-      </c>
-      <c r="G183" t="n">
-        <v>4.75666666666667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K183" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D184" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E184" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F184" t="n">
-        <v>191.8946</v>
-      </c>
-      <c r="G184" t="n">
-        <v>4.753333333333337</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K184" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D185" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="F185" t="n">
-        <v>100</v>
-      </c>
-      <c r="G185" t="n">
-        <v>4.763333333333337</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="K185" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7365,22 +6945,14 @@
         <v>4.780000000000004</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K186" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7408,22 +6980,14 @@
         <v>4.79666666666667</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K187" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7451,22 +7015,14 @@
         <v>4.783333333333338</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="K188" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7494,22 +7050,14 @@
         <v>4.776666666666671</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="K189" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7537,22 +7085,14 @@
         <v>4.763333333333336</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K190" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7580,22 +7120,14 @@
         <v>4.76666666666667</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K191" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7623,22 +7155,14 @@
         <v>4.760000000000002</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K192" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7666,22 +7190,14 @@
         <v>4.760000000000002</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K193" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7709,22 +7225,14 @@
         <v>4.760000000000002</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K194" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7752,22 +7260,14 @@
         <v>4.756666666666669</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K195" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7795,22 +7295,14 @@
         <v>4.753333333333337</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K196" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7838,22 +7330,14 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K197" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7881,22 +7365,14 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K198" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7924,22 +7400,14 @@
         <v>4.753333333333337</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K199" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7967,22 +7435,14 @@
         <v>4.75666666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K200" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8010,22 +7470,14 @@
         <v>4.75666666666667</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K201" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8053,22 +7505,14 @@
         <v>4.753333333333337</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K202" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +7551,7 @@
       <c r="K203" t="n">
         <v>4.75</v>
       </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8139,20 +7579,18 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
         <v>4.75</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -8182,20 +7620,18 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>4.75</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -8225,22 +7661,14 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K206" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8268,22 +7696,14 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K207" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8311,22 +7731,14 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K208" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8354,22 +7766,14 @@
         <v>4.750000000000004</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K209" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8397,22 +7801,14 @@
         <v>4.756666666666671</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K210" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8440,22 +7836,14 @@
         <v>4.760000000000005</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K211" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8483,22 +7871,14 @@
         <v>4.760000000000005</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K212" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8526,22 +7906,14 @@
         <v>4.756666666666671</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K213" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8569,22 +7941,14 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K214" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8612,22 +7976,14 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K215" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8655,22 +8011,14 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K216" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8698,22 +8046,14 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K217" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8741,22 +8081,14 @@
         <v>4.756666666666672</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K218" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8784,22 +8116,14 @@
         <v>4.76333333333334</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="K219" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8827,22 +8151,14 @@
         <v>4.753333333333339</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K220" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8870,22 +8186,14 @@
         <v>4.750000000000006</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K221" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8913,22 +8221,14 @@
         <v>4.740000000000006</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K222" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8956,22 +8256,14 @@
         <v>4.750000000000006</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K223" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M223"/>
+  <dimension ref="A1:M224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.72</v>
+        <v>4.71</v>
       </c>
       <c r="C2" t="n">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="D2" t="n">
-        <v>4.72</v>
+        <v>4.71</v>
       </c>
       <c r="E2" t="n">
-        <v>4.72</v>
+        <v>4.7</v>
       </c>
       <c r="F2" t="n">
-        <v>39055.4472</v>
+        <v>67615.42819999999</v>
       </c>
       <c r="G2" t="n">
-        <v>4.720000000000002</v>
+        <v>4.876333333333334</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>4.72</v>
       </c>
       <c r="F3" t="n">
-        <v>100000</v>
+        <v>39055.4472</v>
       </c>
       <c r="G3" t="n">
-        <v>4.713333333333336</v>
+        <v>4.871333333333335</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>4.72</v>
       </c>
       <c r="F4" t="n">
-        <v>501000</v>
+        <v>100000</v>
       </c>
       <c r="G4" t="n">
-        <v>4.720000000000002</v>
+        <v>4.866500000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>4.72</v>
       </c>
       <c r="C5" t="n">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="D5" t="n">
         <v>4.72</v>
       </c>
       <c r="E5" t="n">
-        <v>4.7</v>
+        <v>4.72</v>
       </c>
       <c r="F5" t="n">
-        <v>22931.4887</v>
+        <v>501000</v>
       </c>
       <c r="G5" t="n">
-        <v>4.713333333333336</v>
+        <v>4.861166666666668</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.69</v>
+        <v>4.72</v>
       </c>
       <c r="C6" t="n">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="D6" t="n">
-        <v>4.69</v>
+        <v>4.72</v>
       </c>
       <c r="E6" t="n">
-        <v>4.67</v>
+        <v>4.7</v>
       </c>
       <c r="F6" t="n">
-        <v>59627.5467</v>
+        <v>22931.4887</v>
       </c>
       <c r="G6" t="n">
-        <v>4.69666666666667</v>
+        <v>4.855500000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.67</v>
+        <v>4.69</v>
       </c>
       <c r="C7" t="n">
         <v>4.67</v>
       </c>
       <c r="D7" t="n">
-        <v>4.67</v>
+        <v>4.69</v>
       </c>
       <c r="E7" t="n">
         <v>4.67</v>
       </c>
       <c r="F7" t="n">
-        <v>4315.307</v>
+        <v>59627.5467</v>
       </c>
       <c r="G7" t="n">
-        <v>4.680000000000004</v>
+        <v>4.848500000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.69</v>
+        <v>4.67</v>
       </c>
       <c r="C8" t="n">
-        <v>4.72</v>
+        <v>4.67</v>
       </c>
       <c r="D8" t="n">
-        <v>4.73</v>
+        <v>4.67</v>
       </c>
       <c r="E8" t="n">
-        <v>4.69</v>
+        <v>4.67</v>
       </c>
       <c r="F8" t="n">
-        <v>184393.3589</v>
+        <v>4315.307</v>
       </c>
       <c r="G8" t="n">
-        <v>4.686666666666671</v>
+        <v>4.841333333333336</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.76</v>
+        <v>4.69</v>
       </c>
       <c r="C9" t="n">
-        <v>4.76</v>
+        <v>4.72</v>
       </c>
       <c r="D9" t="n">
-        <v>4.76</v>
+        <v>4.73</v>
       </c>
       <c r="E9" t="n">
-        <v>4.76</v>
+        <v>4.69</v>
       </c>
       <c r="F9" t="n">
-        <v>167000</v>
+        <v>184393.3589</v>
       </c>
       <c r="G9" t="n">
-        <v>4.716666666666671</v>
+        <v>4.835500000000002</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,23 +725,19 @@
         <v>4.76</v>
       </c>
       <c r="F10" t="n">
-        <v>9673.217500000001</v>
+        <v>167000</v>
       </c>
       <c r="G10" t="n">
-        <v>4.746666666666671</v>
+        <v>4.831500000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.76</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -752,40 +748,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C11" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D11" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E11" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F11" t="n">
-        <v>137446.1793</v>
+        <v>9673.217500000001</v>
       </c>
       <c r="G11" t="n">
-        <v>4.756666666666672</v>
+        <v>4.828333333333336</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -795,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="C12" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D12" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="E12" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F12" t="n">
-        <v>14931.7215</v>
+        <v>137446.1793</v>
       </c>
       <c r="G12" t="n">
-        <v>4.756666666666672</v>
+        <v>4.825333333333336</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -819,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -836,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.74</v>
+        <v>4.76</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>4.76</v>
       </c>
       <c r="D13" t="n">
-        <v>4.74</v>
+        <v>4.76</v>
       </c>
       <c r="E13" t="n">
-        <v>4.74</v>
+        <v>4.76</v>
       </c>
       <c r="F13" t="n">
-        <v>16278.3008</v>
+        <v>14931.7215</v>
       </c>
       <c r="G13" t="n">
-        <v>4.750000000000005</v>
+        <v>4.822666666666668</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -883,10 +865,10 @@
         <v>4.74</v>
       </c>
       <c r="F14" t="n">
-        <v>7943.4671</v>
+        <v>16278.3008</v>
       </c>
       <c r="G14" t="n">
-        <v>4.746666666666672</v>
+        <v>4.819666666666668</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="C15" t="n">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="D15" t="n">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="E15" t="n">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="F15" t="n">
-        <v>3614.4858</v>
+        <v>7943.4671</v>
       </c>
       <c r="G15" t="n">
-        <v>4.750000000000005</v>
+        <v>4.816333333333335</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -941,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="C16" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="D16" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="E16" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>3614.4858</v>
       </c>
       <c r="G16" t="n">
-        <v>4.770000000000005</v>
+        <v>4.813500000000002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -976,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.77</v>
+        <v>4.8</v>
       </c>
       <c r="C17" t="n">
-        <v>4.76</v>
+        <v>4.8</v>
       </c>
       <c r="D17" t="n">
-        <v>4.77</v>
+        <v>4.8</v>
       </c>
       <c r="E17" t="n">
-        <v>4.76</v>
+        <v>4.8</v>
       </c>
       <c r="F17" t="n">
-        <v>20112.6835</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>4.776666666666672</v>
+        <v>4.811000000000003</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1011,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.75</v>
+        <v>4.77</v>
       </c>
       <c r="C18" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D18" t="n">
-        <v>4.75</v>
+        <v>4.77</v>
       </c>
       <c r="E18" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F18" t="n">
-        <v>45461.8947</v>
+        <v>20112.6835</v>
       </c>
       <c r="G18" t="n">
-        <v>4.770000000000004</v>
+        <v>4.807833333333336</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1046,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="C19" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D19" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="E19" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F19" t="n">
-        <v>20112.6835</v>
+        <v>45461.8947</v>
       </c>
       <c r="G19" t="n">
-        <v>4.756666666666671</v>
+        <v>4.804666666666669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1093,10 +1075,10 @@
         <v>4.76</v>
       </c>
       <c r="F20" t="n">
-        <v>17702.4425</v>
+        <v>20112.6835</v>
       </c>
       <c r="G20" t="n">
-        <v>4.756666666666672</v>
+        <v>4.801666666666669</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1116,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C21" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D21" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E21" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F21" t="n">
-        <v>8541.6402</v>
+        <v>17702.4425</v>
       </c>
       <c r="G21" t="n">
-        <v>4.756666666666672</v>
+        <v>4.799000000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1166,7 +1148,7 @@
         <v>8541.6402</v>
       </c>
       <c r="G22" t="n">
-        <v>4.753333333333339</v>
+        <v>4.796000000000002</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1186,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="C23" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="D23" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="E23" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="F23" t="n">
-        <v>44000</v>
+        <v>8541.6402</v>
       </c>
       <c r="G23" t="n">
-        <v>4.76333333333334</v>
+        <v>4.793000000000002</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1224,19 +1206,19 @@
         <v>4.79</v>
       </c>
       <c r="C24" t="n">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
       <c r="D24" t="n">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
       <c r="E24" t="n">
         <v>4.79</v>
       </c>
       <c r="F24" t="n">
-        <v>16646.1358</v>
+        <v>44000</v>
       </c>
       <c r="G24" t="n">
-        <v>4.790000000000006</v>
+        <v>4.790833333333335</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1256,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.81</v>
+        <v>4.79</v>
       </c>
       <c r="C25" t="n">
-        <v>4.8</v>
+        <v>4.83</v>
       </c>
       <c r="D25" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="E25" t="n">
         <v>4.79</v>
       </c>
       <c r="F25" t="n">
-        <v>36279.12</v>
+        <v>16646.1358</v>
       </c>
       <c r="G25" t="n">
-        <v>4.806666666666673</v>
+        <v>4.789500000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="C26" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="D26" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="E26" t="n">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="F26" t="n">
-        <v>134013.7817</v>
+        <v>36279.12</v>
       </c>
       <c r="G26" t="n">
-        <v>4.816666666666674</v>
+        <v>4.787666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="C27" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D27" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="E27" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F27" t="n">
-        <v>8595.7274</v>
+        <v>134013.7817</v>
       </c>
       <c r="G27" t="n">
-        <v>4.810000000000007</v>
+        <v>4.786500000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1373,10 +1355,10 @@
         <v>4.81</v>
       </c>
       <c r="F28" t="n">
-        <v>7870</v>
+        <v>8595.7274</v>
       </c>
       <c r="G28" t="n">
-        <v>4.81333333333334</v>
+        <v>4.785000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1396,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="C29" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="D29" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="E29" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="F29" t="n">
-        <v>49797.99</v>
+        <v>7870</v>
       </c>
       <c r="G29" t="n">
-        <v>4.81333333333334</v>
+        <v>4.783500000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,19 +1416,19 @@
         <v>4.82</v>
       </c>
       <c r="C30" t="n">
-        <v>4.9</v>
+        <v>4.82</v>
       </c>
       <c r="D30" t="n">
-        <v>4.98</v>
+        <v>4.82</v>
       </c>
       <c r="E30" t="n">
         <v>4.82</v>
       </c>
       <c r="F30" t="n">
-        <v>1013246.8957</v>
+        <v>49797.99</v>
       </c>
       <c r="G30" t="n">
-        <v>4.84333333333334</v>
+        <v>4.782500000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1466,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.94</v>
+        <v>4.82</v>
       </c>
       <c r="C31" t="n">
-        <v>4.94</v>
+        <v>4.9</v>
       </c>
       <c r="D31" t="n">
-        <v>4.94</v>
+        <v>4.98</v>
       </c>
       <c r="E31" t="n">
-        <v>4.94</v>
+        <v>4.82</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>1013246.8957</v>
       </c>
       <c r="G31" t="n">
-        <v>4.886666666666674</v>
+        <v>4.782833333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1501,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.98</v>
+        <v>4.94</v>
       </c>
       <c r="C32" t="n">
-        <v>4.98</v>
+        <v>4.94</v>
       </c>
       <c r="D32" t="n">
-        <v>4.99</v>
+        <v>4.94</v>
       </c>
       <c r="E32" t="n">
-        <v>4.98</v>
+        <v>4.94</v>
       </c>
       <c r="F32" t="n">
-        <v>30.1</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>4.940000000000007</v>
+        <v>4.784000000000002</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1536,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.96</v>
+        <v>4.98</v>
       </c>
       <c r="C33" t="n">
-        <v>4.91</v>
+        <v>4.98</v>
       </c>
       <c r="D33" t="n">
-        <v>4.96</v>
+        <v>4.99</v>
       </c>
       <c r="E33" t="n">
-        <v>4.82</v>
+        <v>4.98</v>
       </c>
       <c r="F33" t="n">
-        <v>207496.9348</v>
+        <v>30.1</v>
       </c>
       <c r="G33" t="n">
-        <v>4.94333333333334</v>
+        <v>4.786166666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1571,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.82</v>
+        <v>4.96</v>
       </c>
       <c r="C34" t="n">
-        <v>4.82</v>
+        <v>4.91</v>
       </c>
       <c r="D34" t="n">
-        <v>4.82</v>
+        <v>4.96</v>
       </c>
       <c r="E34" t="n">
         <v>4.82</v>
       </c>
       <c r="F34" t="n">
-        <v>23179.86</v>
+        <v>207496.9348</v>
       </c>
       <c r="G34" t="n">
-        <v>4.90333333333334</v>
+        <v>4.787666666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1606,28 +1588,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="C35" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D35" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="E35" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F35" t="n">
-        <v>9779.728499999999</v>
+        <v>23179.86</v>
       </c>
       <c r="G35" t="n">
-        <v>4.846666666666672</v>
+        <v>4.787500000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1644,19 +1626,19 @@
         <v>4.81</v>
       </c>
       <c r="C36" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="D36" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="E36" t="n">
         <v>4.81</v>
       </c>
       <c r="F36" t="n">
-        <v>20000</v>
+        <v>9779.728499999999</v>
       </c>
       <c r="G36" t="n">
-        <v>4.816666666666673</v>
+        <v>4.787166666666669</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1676,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="C37" t="n">
         <v>4.82</v>
@@ -1685,13 +1667,13 @@
         <v>4.82</v>
       </c>
       <c r="E37" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="F37" t="n">
-        <v>58099.0165</v>
+        <v>20000</v>
       </c>
       <c r="G37" t="n">
-        <v>4.816666666666673</v>
+        <v>4.787000000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1714,19 +1696,19 @@
         <v>4.8</v>
       </c>
       <c r="C38" t="n">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="D38" t="n">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="E38" t="n">
         <v>4.8</v>
       </c>
       <c r="F38" t="n">
-        <v>103606.7916</v>
+        <v>58099.0165</v>
       </c>
       <c r="G38" t="n">
-        <v>4.81333333333334</v>
+        <v>4.786833333333336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1749,19 +1731,19 @@
         <v>4.8</v>
       </c>
       <c r="C39" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="D39" t="n">
         <v>4.8</v>
       </c>
       <c r="E39" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="F39" t="n">
-        <v>79097.4204</v>
+        <v>103606.7916</v>
       </c>
       <c r="G39" t="n">
-        <v>4.803333333333339</v>
+        <v>4.786500000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1781,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="C40" t="n">
         <v>4.79</v>
       </c>
       <c r="D40" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="E40" t="n">
         <v>4.79</v>
       </c>
       <c r="F40" t="n">
-        <v>9809.784</v>
+        <v>79097.4204</v>
       </c>
       <c r="G40" t="n">
-        <v>4.793333333333339</v>
+        <v>4.786000000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1816,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="C41" t="n">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
       <c r="D41" t="n">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
       <c r="E41" t="n">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="F41" t="n">
-        <v>17800</v>
+        <v>9809.784</v>
       </c>
       <c r="G41" t="n">
-        <v>4.803333333333338</v>
+        <v>4.785833333333337</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
       <c r="C42" t="n">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="D42" t="n">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="E42" t="n">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
       <c r="F42" t="n">
-        <v>30000</v>
+        <v>17800</v>
       </c>
       <c r="G42" t="n">
-        <v>4.823333333333338</v>
+        <v>4.786833333333337</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="C43" t="n">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="D43" t="n">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="E43" t="n">
-        <v>4.87</v>
+        <v>4.85</v>
       </c>
       <c r="F43" t="n">
-        <v>8234.5825</v>
+        <v>30000</v>
       </c>
       <c r="G43" t="n">
-        <v>4.850000000000005</v>
+        <v>4.788000000000005</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1933,10 +1915,10 @@
         <v>4.87</v>
       </c>
       <c r="F44" t="n">
-        <v>82</v>
+        <v>8234.5825</v>
       </c>
       <c r="G44" t="n">
-        <v>4.863333333333339</v>
+        <v>4.789833333333338</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1956,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="C45" t="n">
-        <v>4.89</v>
+        <v>4.87</v>
       </c>
       <c r="D45" t="n">
-        <v>4.89</v>
+        <v>4.87</v>
       </c>
       <c r="E45" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="F45" t="n">
-        <v>8006.3756</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
-        <v>4.876666666666671</v>
+        <v>4.791166666666671</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="C46" t="n">
         <v>4.89</v>
       </c>
-      <c r="C46" t="n">
-        <v>4.9</v>
-      </c>
       <c r="D46" t="n">
-        <v>4.9</v>
+        <v>4.89</v>
       </c>
       <c r="E46" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="F46" t="n">
-        <v>296232.8874</v>
+        <v>8006.3756</v>
       </c>
       <c r="G46" t="n">
-        <v>4.886666666666671</v>
+        <v>4.792833333333337</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2026,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="C47" t="n">
         <v>4.9</v>
       </c>
-      <c r="C47" t="n">
-        <v>4.91</v>
-      </c>
       <c r="D47" t="n">
-        <v>4.91</v>
+        <v>4.9</v>
       </c>
       <c r="E47" t="n">
-        <v>4.9</v>
+        <v>4.87</v>
       </c>
       <c r="F47" t="n">
-        <v>901708.2652</v>
+        <v>296232.8874</v>
       </c>
       <c r="G47" t="n">
-        <v>4.900000000000005</v>
+        <v>4.79466666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2061,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.91</v>
+        <v>4.9</v>
       </c>
       <c r="C48" t="n">
         <v>4.91</v>
@@ -2070,13 +2052,13 @@
         <v>4.91</v>
       </c>
       <c r="E48" t="n">
-        <v>4.91</v>
+        <v>4.9</v>
       </c>
       <c r="F48" t="n">
-        <v>33928.7169</v>
+        <v>901708.2652</v>
       </c>
       <c r="G48" t="n">
-        <v>4.906666666666671</v>
+        <v>4.79666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2096,7 +2078,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.9</v>
+        <v>4.91</v>
       </c>
       <c r="C49" t="n">
         <v>4.91</v>
@@ -2105,13 +2087,13 @@
         <v>4.91</v>
       </c>
       <c r="E49" t="n">
-        <v>4.9</v>
+        <v>4.91</v>
       </c>
       <c r="F49" t="n">
-        <v>6900</v>
+        <v>33928.7169</v>
       </c>
       <c r="G49" t="n">
-        <v>4.910000000000005</v>
+        <v>4.798500000000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2143,10 +2125,10 @@
         <v>4.9</v>
       </c>
       <c r="F50" t="n">
-        <v>5925</v>
+        <v>6900</v>
       </c>
       <c r="G50" t="n">
-        <v>4.910000000000005</v>
+        <v>4.800333333333337</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2166,7 +2148,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="C51" t="n">
         <v>4.91</v>
@@ -2175,13 +2157,13 @@
         <v>4.91</v>
       </c>
       <c r="E51" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="F51" t="n">
-        <v>11130.2085</v>
+        <v>5925</v>
       </c>
       <c r="G51" t="n">
-        <v>4.910000000000005</v>
+        <v>4.802000000000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2201,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.84</v>
+        <v>4.89</v>
       </c>
       <c r="C52" t="n">
-        <v>4.82</v>
+        <v>4.91</v>
       </c>
       <c r="D52" t="n">
-        <v>4.84</v>
+        <v>4.91</v>
       </c>
       <c r="E52" t="n">
-        <v>4.82</v>
+        <v>4.89</v>
       </c>
       <c r="F52" t="n">
-        <v>9534.8963</v>
+        <v>11130.2085</v>
       </c>
       <c r="G52" t="n">
-        <v>4.880000000000005</v>
+        <v>4.803666666666671</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2236,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.82</v>
+        <v>4.84</v>
       </c>
       <c r="C53" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D53" t="n">
-        <v>4.82</v>
+        <v>4.84</v>
       </c>
       <c r="E53" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F53" t="n">
-        <v>51837.0055</v>
+        <v>9534.8963</v>
       </c>
       <c r="G53" t="n">
-        <v>4.846666666666671</v>
+        <v>4.803833333333338</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2271,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="C54" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="D54" t="n">
-        <v>4.8</v>
+        <v>4.82</v>
       </c>
       <c r="E54" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="F54" t="n">
-        <v>165347.9662</v>
+        <v>51837.0055</v>
       </c>
       <c r="G54" t="n">
-        <v>4.806666666666671</v>
+        <v>4.804000000000004</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2306,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="C55" t="n">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="D55" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="E55" t="n">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="F55" t="n">
-        <v>30363.1799</v>
+        <v>165347.9662</v>
       </c>
       <c r="G55" t="n">
-        <v>4.793333333333337</v>
+        <v>4.803833333333338</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2341,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="C56" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="D56" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="E56" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="F56" t="n">
-        <v>118163.5438</v>
+        <v>30363.1799</v>
       </c>
       <c r="G56" t="n">
-        <v>4.776666666666672</v>
+        <v>4.803333333333337</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2376,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="C57" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="D57" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="E57" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>118163.5438</v>
       </c>
       <c r="G57" t="n">
-        <v>4.786666666666672</v>
+        <v>4.802500000000004</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2411,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="C58" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="D58" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="E58" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="F58" t="n">
         <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>4.803333333333339</v>
+        <v>4.802833333333337</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2449,19 +2431,19 @@
         <v>4.83</v>
       </c>
       <c r="C59" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="D59" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="E59" t="n">
         <v>4.83</v>
       </c>
       <c r="F59" t="n">
-        <v>9600</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>4.830000000000006</v>
+        <v>4.803500000000002</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2481,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="C60" t="n">
-        <v>4.85</v>
+        <v>4.84</v>
       </c>
       <c r="D60" t="n">
-        <v>4.85</v>
+        <v>4.84</v>
       </c>
       <c r="E60" t="n">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>9600</v>
       </c>
       <c r="G60" t="n">
-        <v>4.840000000000006</v>
+        <v>4.804000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2516,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.78</v>
+        <v>4.85</v>
       </c>
       <c r="C61" t="n">
-        <v>4.78</v>
+        <v>4.85</v>
       </c>
       <c r="D61" t="n">
-        <v>4.78</v>
+        <v>4.85</v>
       </c>
       <c r="E61" t="n">
-        <v>4.78</v>
+        <v>4.85</v>
       </c>
       <c r="F61" t="n">
-        <v>5421.6296</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>4.823333333333339</v>
+        <v>4.805833333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2563,10 +2545,10 @@
         <v>4.78</v>
       </c>
       <c r="F62" t="n">
-        <v>30000</v>
+        <v>5421.6296</v>
       </c>
       <c r="G62" t="n">
-        <v>4.803333333333339</v>
+        <v>4.807166666666669</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2586,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.83</v>
+        <v>4.78</v>
       </c>
       <c r="C63" t="n">
-        <v>4.85</v>
+        <v>4.78</v>
       </c>
       <c r="D63" t="n">
-        <v>4.85</v>
+        <v>4.78</v>
       </c>
       <c r="E63" t="n">
-        <v>4.83</v>
+        <v>4.78</v>
       </c>
       <c r="F63" t="n">
-        <v>1010</v>
+        <v>30000</v>
       </c>
       <c r="G63" t="n">
-        <v>4.80333333333334</v>
+        <v>4.808166666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2621,7 +2603,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="C64" t="n">
         <v>4.85</v>
@@ -2630,13 +2612,13 @@
         <v>4.85</v>
       </c>
       <c r="E64" t="n">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="F64" t="n">
-        <v>108329.2783</v>
+        <v>1010</v>
       </c>
       <c r="G64" t="n">
-        <v>4.826666666666672</v>
+        <v>4.810333333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2656,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="C65" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="D65" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="E65" t="n">
-        <v>4.81</v>
+        <v>4.85</v>
       </c>
       <c r="F65" t="n">
-        <v>130897.6336</v>
+        <v>108329.2783</v>
       </c>
       <c r="G65" t="n">
-        <v>4.836666666666672</v>
+        <v>4.812500000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2691,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="C66" t="n">
-        <v>4.84</v>
+        <v>4.81</v>
       </c>
       <c r="D66" t="n">
-        <v>4.84</v>
+        <v>4.81</v>
       </c>
       <c r="E66" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="F66" t="n">
-        <v>1594.2468</v>
+        <v>130897.6336</v>
       </c>
       <c r="G66" t="n">
-        <v>4.833333333333338</v>
+        <v>4.814333333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C67" t="n">
         <v>4.84</v>
       </c>
-      <c r="C67" t="n">
-        <v>4.82</v>
-      </c>
       <c r="D67" t="n">
-        <v>4.85</v>
+        <v>4.84</v>
       </c>
       <c r="E67" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="F67" t="n">
-        <v>11863.1807</v>
+        <v>1594.2468</v>
       </c>
       <c r="G67" t="n">
-        <v>4.823333333333339</v>
+        <v>4.817166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.83</v>
+        <v>4.84</v>
       </c>
       <c r="C68" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="D68" t="n">
-        <v>4.83</v>
+        <v>4.85</v>
       </c>
       <c r="E68" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="F68" t="n">
-        <v>78000</v>
+        <v>11863.1807</v>
       </c>
       <c r="G68" t="n">
-        <v>4.830000000000005</v>
+        <v>4.819666666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2796,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="C69" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="D69" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="E69" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>78000</v>
       </c>
       <c r="G69" t="n">
-        <v>4.830000000000005</v>
+        <v>4.821499999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.86</v>
+        <v>4.84</v>
       </c>
       <c r="C70" t="n">
-        <v>4.86</v>
+        <v>4.84</v>
       </c>
       <c r="D70" t="n">
-        <v>4.86</v>
+        <v>4.84</v>
       </c>
       <c r="E70" t="n">
         <v>4.84</v>
       </c>
       <c r="F70" t="n">
-        <v>51091.3012</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>4.843333333333338</v>
+        <v>4.822833333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2866,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.83</v>
+        <v>4.86</v>
       </c>
       <c r="C71" t="n">
-        <v>4.83</v>
+        <v>4.86</v>
       </c>
       <c r="D71" t="n">
-        <v>4.83</v>
+        <v>4.86</v>
       </c>
       <c r="E71" t="n">
-        <v>4.83</v>
+        <v>4.84</v>
       </c>
       <c r="F71" t="n">
-        <v>10</v>
+        <v>51091.3012</v>
       </c>
       <c r="G71" t="n">
-        <v>4.843333333333338</v>
+        <v>4.8245</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.86</v>
+        <v>4.83</v>
       </c>
       <c r="C72" t="n">
         <v>4.83</v>
       </c>
       <c r="D72" t="n">
-        <v>4.86</v>
+        <v>4.83</v>
       </c>
       <c r="E72" t="n">
         <v>4.83</v>
       </c>
       <c r="F72" t="n">
-        <v>9974.3685</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>4.840000000000004</v>
+        <v>4.825833333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2936,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="C73" t="n">
-        <v>4.86</v>
+        <v>4.83</v>
       </c>
       <c r="D73" t="n">
         <v>4.86</v>
       </c>
       <c r="E73" t="n">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
       <c r="F73" t="n">
-        <v>1728</v>
+        <v>9974.3685</v>
       </c>
       <c r="G73" t="n">
-        <v>4.840000000000004</v>
+        <v>4.826999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2971,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="C74" t="n">
         <v>4.86</v>
       </c>
-      <c r="C74" t="n">
-        <v>4.87</v>
-      </c>
       <c r="D74" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="E74" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="F74" t="n">
-        <v>330</v>
+        <v>1728</v>
       </c>
       <c r="G74" t="n">
-        <v>4.853333333333338</v>
+        <v>4.828999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3006,7 +2988,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="C75" t="n">
         <v>4.87</v>
@@ -3015,13 +2997,13 @@
         <v>4.87</v>
       </c>
       <c r="E75" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="F75" t="n">
-        <v>166</v>
+        <v>330</v>
       </c>
       <c r="G75" t="n">
-        <v>4.866666666666672</v>
+        <v>4.831166666666665</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3041,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.83</v>
+        <v>4.87</v>
       </c>
       <c r="C76" t="n">
-        <v>4.82</v>
+        <v>4.87</v>
       </c>
       <c r="D76" t="n">
-        <v>4.83</v>
+        <v>4.87</v>
       </c>
       <c r="E76" t="n">
-        <v>4.82</v>
+        <v>4.87</v>
       </c>
       <c r="F76" t="n">
-        <v>554453.5943</v>
+        <v>166</v>
       </c>
       <c r="G76" t="n">
-        <v>4.853333333333339</v>
+        <v>4.832833333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3076,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
       <c r="C77" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D77" t="n">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
       <c r="E77" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F77" t="n">
-        <v>172157.8257</v>
+        <v>554453.5943</v>
       </c>
       <c r="G77" t="n">
-        <v>4.833333333333338</v>
+        <v>4.833166666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3111,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="C78" t="n">
         <v>4.81</v>
       </c>
       <c r="D78" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="E78" t="n">
         <v>4.81</v>
       </c>
       <c r="F78" t="n">
-        <v>182040.0874</v>
+        <v>172157.8257</v>
       </c>
       <c r="G78" t="n">
-        <v>4.813333333333337</v>
+        <v>4.834</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3146,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="C79" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="D79" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="E79" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="F79" t="n">
-        <v>200255.6813</v>
+        <v>182040.0874</v>
       </c>
       <c r="G79" t="n">
-        <v>4.803333333333337</v>
+        <v>4.834999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3181,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="C80" t="n">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="D80" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="E80" t="n">
-        <v>4.82</v>
+        <v>4.79</v>
       </c>
       <c r="F80" t="n">
-        <v>16936.4961</v>
+        <v>200255.6813</v>
       </c>
       <c r="G80" t="n">
-        <v>4.806666666666671</v>
+        <v>4.8355</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3228,10 +3210,10 @@
         <v>4.82</v>
       </c>
       <c r="F81" t="n">
-        <v>10650.6396</v>
+        <v>16936.4961</v>
       </c>
       <c r="G81" t="n">
-        <v>4.810000000000005</v>
+        <v>4.8365</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3251,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="C82" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="D82" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="E82" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="F82" t="n">
-        <v>9706.0041</v>
+        <v>10650.6396</v>
       </c>
       <c r="G82" t="n">
-        <v>4.823333333333338</v>
+        <v>4.837666666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3286,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="C83" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="D83" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="E83" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="F83" t="n">
-        <v>320</v>
+        <v>9706.0041</v>
       </c>
       <c r="G83" t="n">
-        <v>4.820000000000004</v>
+        <v>4.839</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3321,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="C84" t="n">
-        <v>4.78</v>
+        <v>4.81</v>
       </c>
       <c r="D84" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="E84" t="n">
-        <v>4.78</v>
+        <v>4.81</v>
       </c>
       <c r="F84" t="n">
-        <v>20316.3906</v>
+        <v>320</v>
       </c>
       <c r="G84" t="n">
-        <v>4.806666666666671</v>
+        <v>4.839333333333332</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="C85" t="n">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="D85" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="E85" t="n">
-        <v>4.8</v>
+        <v>4.78</v>
       </c>
       <c r="F85" t="n">
-        <v>10158.1953</v>
+        <v>20316.3906</v>
       </c>
       <c r="G85" t="n">
-        <v>4.796666666666671</v>
+        <v>4.838499999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="C86" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="D86" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="E86" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="F86" t="n">
-        <v>2731.8047</v>
+        <v>10158.1953</v>
       </c>
       <c r="G86" t="n">
-        <v>4.786666666666672</v>
+        <v>4.838499999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="C87" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="D87" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="E87" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="F87" t="n">
-        <v>9564.415000000001</v>
+        <v>2731.8047</v>
       </c>
       <c r="G87" t="n">
-        <v>4.790000000000004</v>
+        <v>4.837833333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3473,10 +3455,10 @@
         <v>4.79</v>
       </c>
       <c r="F88" t="n">
-        <v>28727.0471</v>
+        <v>9564.415000000001</v>
       </c>
       <c r="G88" t="n">
-        <v>4.78666666666667</v>
+        <v>4.837499999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3508,10 +3490,10 @@
         <v>4.79</v>
       </c>
       <c r="F89" t="n">
-        <v>163223.8908</v>
+        <v>28727.0471</v>
       </c>
       <c r="G89" t="n">
-        <v>4.790000000000003</v>
+        <v>4.837166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="C90" t="n">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="D90" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="E90" t="n">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="F90" t="n">
-        <v>45222.3218</v>
+        <v>163223.8908</v>
       </c>
       <c r="G90" t="n">
-        <v>4.783333333333336</v>
+        <v>4.836666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="C91" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="D91" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="E91" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="F91" t="n">
-        <v>24870.5899</v>
+        <v>45222.3218</v>
       </c>
       <c r="G91" t="n">
-        <v>4.780000000000004</v>
+        <v>4.8345</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="C92" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="D92" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="E92" t="n">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="F92" t="n">
-        <v>8216.196599999999</v>
+        <v>24870.5899</v>
       </c>
       <c r="G92" t="n">
-        <v>4.780000000000004</v>
+        <v>4.831833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3639,19 +3621,19 @@
         <v>4.79</v>
       </c>
       <c r="C93" t="n">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="D93" t="n">
         <v>4.79</v>
       </c>
       <c r="E93" t="n">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="F93" t="n">
-        <v>359129.6912</v>
+        <v>8216.196599999999</v>
       </c>
       <c r="G93" t="n">
-        <v>4.780000000000004</v>
+        <v>4.828666666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="C94" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="D94" t="n">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="E94" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="F94" t="n">
-        <v>120485</v>
+        <v>359129.6912</v>
       </c>
       <c r="G94" t="n">
-        <v>4.780000000000004</v>
+        <v>4.826333333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3709,19 +3691,19 @@
         <v>4.78</v>
       </c>
       <c r="C95" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="D95" t="n">
         <v>4.78</v>
       </c>
       <c r="E95" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="F95" t="n">
-        <v>78000</v>
+        <v>120485</v>
       </c>
       <c r="G95" t="n">
-        <v>4.76666666666667</v>
+        <v>4.825666666666665</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3741,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.77</v>
+        <v>4.78</v>
       </c>
       <c r="C96" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D96" t="n">
-        <v>4.77</v>
+        <v>4.78</v>
       </c>
       <c r="E96" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F96" t="n">
-        <v>323206.1375</v>
+        <v>78000</v>
       </c>
       <c r="G96" t="n">
-        <v>4.763333333333336</v>
+        <v>4.824666666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3779,19 +3761,19 @@
         <v>4.77</v>
       </c>
       <c r="C97" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="D97" t="n">
         <v>4.77</v>
       </c>
       <c r="E97" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="F97" t="n">
-        <v>7769.0222</v>
+        <v>323206.1375</v>
       </c>
       <c r="G97" t="n">
-        <v>4.760000000000002</v>
+        <v>4.823666666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3823,10 +3805,10 @@
         <v>4.77</v>
       </c>
       <c r="F98" t="n">
-        <v>59267.9777</v>
+        <v>7769.0222</v>
       </c>
       <c r="G98" t="n">
-        <v>4.766666666666669</v>
+        <v>4.822833333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3846,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.79</v>
+        <v>4.77</v>
       </c>
       <c r="C99" t="n">
-        <v>4.79</v>
+        <v>4.77</v>
       </c>
       <c r="D99" t="n">
-        <v>4.79</v>
+        <v>4.77</v>
       </c>
       <c r="E99" t="n">
-        <v>4.79</v>
+        <v>4.77</v>
       </c>
       <c r="F99" t="n">
-        <v>277161.8648</v>
+        <v>59267.9777</v>
       </c>
       <c r="G99" t="n">
-        <v>4.776666666666669</v>
+        <v>4.822333333333331</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="C100" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="D100" t="n">
-        <v>4.81</v>
+        <v>4.79</v>
       </c>
       <c r="E100" t="n">
         <v>4.79</v>
       </c>
       <c r="F100" t="n">
-        <v>889336.3585</v>
+        <v>277161.8648</v>
       </c>
       <c r="G100" t="n">
-        <v>4.786666666666669</v>
+        <v>4.822333333333331</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="C101" t="n">
-        <v>4.79</v>
+        <v>4.8</v>
       </c>
       <c r="D101" t="n">
-        <v>4.79</v>
+        <v>4.81</v>
       </c>
       <c r="E101" t="n">
         <v>4.79</v>
       </c>
       <c r="F101" t="n">
-        <v>350000</v>
+        <v>889336.3585</v>
       </c>
       <c r="G101" t="n">
-        <v>4.793333333333336</v>
+        <v>4.822499999999997</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3963,10 +3945,10 @@
         <v>4.79</v>
       </c>
       <c r="F102" t="n">
-        <v>24424.4262</v>
+        <v>350000</v>
       </c>
       <c r="G102" t="n">
-        <v>4.793333333333336</v>
+        <v>4.821833333333331</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="C103" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="D103" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="E103" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="F103" t="n">
-        <v>7896.4903</v>
+        <v>24424.4262</v>
       </c>
       <c r="G103" t="n">
-        <v>4.793333333333336</v>
+        <v>4.820833333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4021,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="C104" t="n">
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="D104" t="n">
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="E104" t="n">
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="F104" t="n">
-        <v>8430.5803</v>
+        <v>7896.4903</v>
       </c>
       <c r="G104" t="n">
-        <v>4.806666666666669</v>
+        <v>4.819666666666665</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4056,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="C105" t="n">
-        <v>4.77</v>
+        <v>4.83</v>
       </c>
       <c r="D105" t="n">
-        <v>4.81</v>
+        <v>4.83</v>
       </c>
       <c r="E105" t="n">
-        <v>4.77</v>
+        <v>4.83</v>
       </c>
       <c r="F105" t="n">
-        <v>61271.0492</v>
+        <v>8430.5803</v>
       </c>
       <c r="G105" t="n">
-        <v>4.800000000000003</v>
+        <v>4.818999999999998</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4091,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.76</v>
+        <v>4.81</v>
       </c>
       <c r="C106" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="D106" t="n">
-        <v>4.76</v>
+        <v>4.81</v>
       </c>
       <c r="E106" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="F106" t="n">
-        <v>18113.947</v>
+        <v>61271.0492</v>
       </c>
       <c r="G106" t="n">
-        <v>4.78666666666667</v>
+        <v>4.816999999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4126,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C107" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D107" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E107" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F107" t="n">
-        <v>111705.4736</v>
+        <v>18113.947</v>
       </c>
       <c r="G107" t="n">
-        <v>4.760000000000003</v>
+        <v>4.814666666666665</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4173,10 +4155,10 @@
         <v>4.75</v>
       </c>
       <c r="F108" t="n">
-        <v>210970.4641</v>
+        <v>111705.4736</v>
       </c>
       <c r="G108" t="n">
-        <v>4.753333333333337</v>
+        <v>4.811999999999998</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4208,10 +4190,10 @@
         <v>4.75</v>
       </c>
       <c r="F109" t="n">
-        <v>209197.603</v>
+        <v>210970.4641</v>
       </c>
       <c r="G109" t="n">
-        <v>4.750000000000003</v>
+        <v>4.80933333333333</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4231,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="C110" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="D110" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="E110" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="F110" t="n">
-        <v>25340.1458</v>
+        <v>209197.603</v>
       </c>
       <c r="G110" t="n">
-        <v>4.74666666666667</v>
+        <v>4.806666666666663</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4278,10 +4260,10 @@
         <v>4.74</v>
       </c>
       <c r="F111" t="n">
-        <v>42770</v>
+        <v>25340.1458</v>
       </c>
       <c r="G111" t="n">
-        <v>4.743333333333337</v>
+        <v>4.80383333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4313,10 +4295,10 @@
         <v>4.74</v>
       </c>
       <c r="F112" t="n">
-        <v>20082</v>
+        <v>42770</v>
       </c>
       <c r="G112" t="n">
-        <v>4.740000000000005</v>
+        <v>4.800999999999997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4336,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
       <c r="C113" t="n">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
       <c r="D113" t="n">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
       <c r="E113" t="n">
-        <v>4.76</v>
+        <v>4.74</v>
       </c>
       <c r="F113" t="n">
-        <v>166692.5576</v>
+        <v>20082</v>
       </c>
       <c r="G113" t="n">
-        <v>4.746666666666671</v>
+        <v>4.799666666666663</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="C114" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="D114" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="E114" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="F114" t="n">
-        <v>3257.0117</v>
+        <v>166692.5576</v>
       </c>
       <c r="G114" t="n">
-        <v>4.75666666666667</v>
+        <v>4.79883333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4406,35 +4388,31 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="C115" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="D115" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="E115" t="n">
-        <v>4.8</v>
+        <v>4.77</v>
       </c>
       <c r="F115" t="n">
-        <v>16667.936</v>
+        <v>3257.0117</v>
       </c>
       <c r="G115" t="n">
-        <v>4.77666666666667</v>
+        <v>4.798499999999995</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K115" t="n">
-        <v>4.77</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
@@ -4445,40 +4423,32 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="C116" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="D116" t="n">
-        <v>4.83</v>
+        <v>4.8</v>
       </c>
       <c r="E116" t="n">
-        <v>4.82</v>
+        <v>4.8</v>
       </c>
       <c r="F116" t="n">
-        <v>41204.0764</v>
+        <v>16667.936</v>
       </c>
       <c r="G116" t="n">
-        <v>4.796666666666671</v>
+        <v>4.79883333333333</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K116" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4491,37 +4461,29 @@
         <v>4.83</v>
       </c>
       <c r="C117" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="D117" t="n">
         <v>4.83</v>
       </c>
       <c r="E117" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="F117" t="n">
-        <v>16492.2877</v>
+        <v>41204.0764</v>
       </c>
       <c r="G117" t="n">
-        <v>4.816666666666671</v>
+        <v>4.799833333333329</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K117" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4531,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
       <c r="C118" t="n">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
       <c r="D118" t="n">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
       <c r="E118" t="n">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
       <c r="F118" t="n">
-        <v>17483.4437</v>
+        <v>16492.2877</v>
       </c>
       <c r="G118" t="n">
-        <v>4.823333333333338</v>
+        <v>4.799999999999996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4569,19 +4531,19 @@
         <v>4.82</v>
       </c>
       <c r="C119" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D119" t="n">
         <v>4.82</v>
       </c>
       <c r="E119" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F119" t="n">
-        <v>105000</v>
+        <v>17483.4437</v>
       </c>
       <c r="G119" t="n">
-        <v>4.820000000000004</v>
+        <v>4.799833333333329</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4601,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="C120" t="n">
-        <v>4.83</v>
+        <v>4.81</v>
       </c>
       <c r="D120" t="n">
-        <v>4.83</v>
+        <v>4.82</v>
       </c>
       <c r="E120" t="n">
-        <v>4.83</v>
+        <v>4.81</v>
       </c>
       <c r="F120" t="n">
-        <v>42687.7846</v>
+        <v>105000</v>
       </c>
       <c r="G120" t="n">
-        <v>4.820000000000005</v>
+        <v>4.799333333333331</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4636,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="C121" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="D121" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="E121" t="n">
-        <v>4.84</v>
+        <v>4.83</v>
       </c>
       <c r="F121" t="n">
-        <v>500</v>
+        <v>42687.7846</v>
       </c>
       <c r="G121" t="n">
-        <v>4.826666666666671</v>
+        <v>4.798999999999996</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4671,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.85</v>
+        <v>4.84</v>
       </c>
       <c r="C122" t="n">
-        <v>4.85</v>
+        <v>4.84</v>
       </c>
       <c r="D122" t="n">
-        <v>4.85</v>
+        <v>4.84</v>
       </c>
       <c r="E122" t="n">
-        <v>4.85</v>
+        <v>4.84</v>
       </c>
       <c r="F122" t="n">
         <v>500</v>
       </c>
       <c r="G122" t="n">
-        <v>4.840000000000004</v>
+        <v>4.799999999999996</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4706,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="C123" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="D123" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="E123" t="n">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
       <c r="F123" t="n">
-        <v>2765.3298</v>
+        <v>500</v>
       </c>
       <c r="G123" t="n">
-        <v>4.850000000000004</v>
+        <v>4.801166666666663</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4753,10 +4715,10 @@
         <v>4.86</v>
       </c>
       <c r="F124" t="n">
-        <v>20500</v>
+        <v>2765.3298</v>
       </c>
       <c r="G124" t="n">
-        <v>4.856666666666672</v>
+        <v>4.80133333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4788,10 +4750,10 @@
         <v>4.86</v>
       </c>
       <c r="F125" t="n">
-        <v>5367.687</v>
+        <v>20500</v>
       </c>
       <c r="G125" t="n">
-        <v>4.860000000000005</v>
+        <v>4.801499999999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4811,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="C126" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="D126" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="E126" t="n">
-        <v>4.87</v>
+        <v>4.86</v>
       </c>
       <c r="F126" t="n">
-        <v>87778.8091</v>
+        <v>5367.687</v>
       </c>
       <c r="G126" t="n">
-        <v>4.863333333333338</v>
+        <v>4.802333333333331</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4846,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="C127" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="D127" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="E127" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>87778.8091</v>
       </c>
       <c r="G127" t="n">
-        <v>4.870000000000005</v>
+        <v>4.80283333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4881,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="C128" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="D128" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="E128" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="F128" t="n">
-        <v>42581.0651</v>
+        <v>500</v>
       </c>
       <c r="G128" t="n">
-        <v>4.873333333333338</v>
+        <v>4.803833333333331</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4916,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="C129" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="D129" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="E129" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="F129" t="n">
-        <v>94974.4777</v>
+        <v>42581.0651</v>
       </c>
       <c r="G129" t="n">
-        <v>4.876666666666671</v>
+        <v>4.804499999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4951,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.89</v>
+        <v>4.88</v>
       </c>
       <c r="C130" t="n">
-        <v>4.89</v>
+        <v>4.88</v>
       </c>
       <c r="D130" t="n">
-        <v>4.89</v>
+        <v>4.88</v>
       </c>
       <c r="E130" t="n">
-        <v>4.89</v>
+        <v>4.88</v>
       </c>
       <c r="F130" t="n">
-        <v>105650.1813</v>
+        <v>94974.4777</v>
       </c>
       <c r="G130" t="n">
-        <v>4.880000000000005</v>
+        <v>4.805166666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4986,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="C131" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="D131" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="E131" t="n">
-        <v>4.88</v>
+        <v>4.89</v>
       </c>
       <c r="F131" t="n">
-        <v>32662.1664</v>
+        <v>105650.1813</v>
       </c>
       <c r="G131" t="n">
-        <v>4.883333333333337</v>
+        <v>4.805666666666665</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5021,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="C132" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="D132" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="E132" t="n">
-        <v>4.87</v>
+        <v>4.88</v>
       </c>
       <c r="F132" t="n">
-        <v>309707.2032</v>
+        <v>32662.1664</v>
       </c>
       <c r="G132" t="n">
-        <v>4.880000000000005</v>
+        <v>4.806499999999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5059,19 +5021,19 @@
         <v>4.87</v>
       </c>
       <c r="C133" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="D133" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="E133" t="n">
         <v>4.87</v>
       </c>
       <c r="F133" t="n">
-        <v>23387.8956</v>
+        <v>309707.2032</v>
       </c>
       <c r="G133" t="n">
-        <v>4.876666666666671</v>
+        <v>4.807166666666665</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5091,10 +5053,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="C134" t="n">
         <v>4.88</v>
-      </c>
-      <c r="C134" t="n">
-        <v>4.87</v>
       </c>
       <c r="D134" t="n">
         <v>4.88</v>
@@ -5103,10 +5065,10 @@
         <v>4.87</v>
       </c>
       <c r="F134" t="n">
-        <v>70325.67140000001</v>
+        <v>23387.8956</v>
       </c>
       <c r="G134" t="n">
-        <v>4.873333333333338</v>
+        <v>4.807499999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5129,19 +5091,19 @@
         <v>4.88</v>
       </c>
       <c r="C135" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="D135" t="n">
         <v>4.88</v>
       </c>
       <c r="E135" t="n">
-        <v>4.88</v>
+        <v>4.87</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0004</v>
+        <v>70325.67140000001</v>
       </c>
       <c r="G135" t="n">
-        <v>4.876666666666671</v>
+        <v>4.807499999999998</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5173,10 +5135,10 @@
         <v>4.88</v>
       </c>
       <c r="F136" t="n">
-        <v>423280.7373</v>
+        <v>0.0004</v>
       </c>
       <c r="G136" t="n">
-        <v>4.876666666666671</v>
+        <v>4.807666666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5196,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
       <c r="C137" t="n">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
       <c r="D137" t="n">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
       <c r="E137" t="n">
-        <v>4.9</v>
+        <v>4.88</v>
       </c>
       <c r="F137" t="n">
-        <v>500</v>
+        <v>423280.7373</v>
       </c>
       <c r="G137" t="n">
-        <v>4.886666666666671</v>
+        <v>4.808666666666665</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5231,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="C138" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="D138" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="E138" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="F138" t="n">
-        <v>487.2719</v>
+        <v>500</v>
       </c>
       <c r="G138" t="n">
-        <v>4.890000000000005</v>
+        <v>4.810166666666664</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5269,19 +5231,19 @@
         <v>4.89</v>
       </c>
       <c r="C139" t="n">
-        <v>4.82</v>
+        <v>4.89</v>
       </c>
       <c r="D139" t="n">
         <v>4.89</v>
       </c>
       <c r="E139" t="n">
-        <v>4.82</v>
+        <v>4.89</v>
       </c>
       <c r="F139" t="n">
-        <v>601843</v>
+        <v>487.2719</v>
       </c>
       <c r="G139" t="n">
-        <v>4.870000000000005</v>
+        <v>4.811499999999997</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5301,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.81</v>
+        <v>4.89</v>
       </c>
       <c r="C140" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D140" t="n">
-        <v>4.81</v>
+        <v>4.89</v>
       </c>
       <c r="E140" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F140" t="n">
-        <v>1046859.1277</v>
+        <v>601843</v>
       </c>
       <c r="G140" t="n">
-        <v>4.840000000000005</v>
+        <v>4.811999999999997</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5348,10 +5310,10 @@
         <v>4.81</v>
       </c>
       <c r="F141" t="n">
-        <v>32772.2522</v>
+        <v>1046859.1277</v>
       </c>
       <c r="G141" t="n">
-        <v>4.813333333333339</v>
+        <v>4.81183333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5383,10 +5345,10 @@
         <v>4.81</v>
       </c>
       <c r="F142" t="n">
-        <v>219297.5591</v>
+        <v>32772.2522</v>
       </c>
       <c r="G142" t="n">
-        <v>4.810000000000005</v>
+        <v>4.811666666666664</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5406,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="C143" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="D143" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="E143" t="n">
-        <v>4.8</v>
+        <v>4.81</v>
       </c>
       <c r="F143" t="n">
-        <v>44353</v>
+        <v>219297.5591</v>
       </c>
       <c r="G143" t="n">
-        <v>4.806666666666672</v>
+        <v>4.811333333333331</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5453,10 +5415,10 @@
         <v>4.8</v>
       </c>
       <c r="F144" t="n">
-        <v>48711.0736</v>
+        <v>44353</v>
       </c>
       <c r="G144" t="n">
-        <v>4.803333333333339</v>
+        <v>4.811166666666664</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5488,10 +5450,10 @@
         <v>4.8</v>
       </c>
       <c r="F145" t="n">
-        <v>55294.5336</v>
+        <v>48711.0736</v>
       </c>
       <c r="G145" t="n">
-        <v>4.800000000000007</v>
+        <v>4.811499999999998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5523,10 +5485,10 @@
         <v>4.8</v>
       </c>
       <c r="F146" t="n">
-        <v>14194.9272</v>
+        <v>55294.5336</v>
       </c>
       <c r="G146" t="n">
-        <v>4.800000000000007</v>
+        <v>4.811499999999998</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5558,10 +5520,10 @@
         <v>4.8</v>
       </c>
       <c r="F147" t="n">
-        <v>3101.2662</v>
+        <v>14194.9272</v>
       </c>
       <c r="G147" t="n">
-        <v>4.800000000000007</v>
+        <v>4.811833333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5581,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.81</v>
+        <v>4.8</v>
       </c>
       <c r="C148" t="n">
-        <v>4.81</v>
+        <v>4.8</v>
       </c>
       <c r="D148" t="n">
-        <v>4.81</v>
+        <v>4.8</v>
       </c>
       <c r="E148" t="n">
-        <v>4.81</v>
+        <v>4.8</v>
       </c>
       <c r="F148" t="n">
-        <v>694894.8944</v>
+        <v>3101.2662</v>
       </c>
       <c r="G148" t="n">
-        <v>4.803333333333339</v>
+        <v>4.811999999999999</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5628,10 +5590,10 @@
         <v>4.81</v>
       </c>
       <c r="F149" t="n">
-        <v>358381.8114</v>
+        <v>694894.8944</v>
       </c>
       <c r="G149" t="n">
-        <v>4.806666666666672</v>
+        <v>4.812333333333331</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5651,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="C150" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="D150" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="E150" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="F150" t="n">
-        <v>103906.9571</v>
+        <v>358381.8114</v>
       </c>
       <c r="G150" t="n">
-        <v>4.813333333333339</v>
+        <v>4.812666666666664</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5686,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="C151" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D151" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="E151" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F151" t="n">
-        <v>31840.1431</v>
+        <v>103906.9571</v>
       </c>
       <c r="G151" t="n">
-        <v>4.813333333333339</v>
+        <v>4.813499999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5727,16 +5689,16 @@
         <v>4.81</v>
       </c>
       <c r="D152" t="n">
-        <v>4.82</v>
+        <v>4.81</v>
       </c>
       <c r="E152" t="n">
         <v>4.81</v>
       </c>
       <c r="F152" t="n">
-        <v>187307.0116</v>
+        <v>31840.1431</v>
       </c>
       <c r="G152" t="n">
-        <v>4.813333333333339</v>
+        <v>4.813999999999998</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5762,16 +5724,16 @@
         <v>4.81</v>
       </c>
       <c r="D153" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="E153" t="n">
         <v>4.81</v>
       </c>
       <c r="F153" t="n">
-        <v>153020</v>
+        <v>187307.0116</v>
       </c>
       <c r="G153" t="n">
-        <v>4.810000000000005</v>
+        <v>4.814333333333332</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5803,10 +5765,10 @@
         <v>4.81</v>
       </c>
       <c r="F154" t="n">
-        <v>139121.9999</v>
+        <v>153020</v>
       </c>
       <c r="G154" t="n">
-        <v>4.810000000000005</v>
+        <v>4.814999999999999</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5838,10 +5800,10 @@
         <v>4.81</v>
       </c>
       <c r="F155" t="n">
-        <v>9261</v>
+        <v>139121.9999</v>
       </c>
       <c r="G155" t="n">
-        <v>4.810000000000005</v>
+        <v>4.815499999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5861,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.85</v>
+        <v>4.81</v>
       </c>
       <c r="C156" t="n">
-        <v>4.85</v>
+        <v>4.81</v>
       </c>
       <c r="D156" t="n">
-        <v>4.85</v>
+        <v>4.81</v>
       </c>
       <c r="E156" t="n">
-        <v>4.85</v>
+        <v>4.81</v>
       </c>
       <c r="F156" t="n">
-        <v>20926.4033</v>
+        <v>9261</v>
       </c>
       <c r="G156" t="n">
-        <v>4.823333333333339</v>
+        <v>4.8165</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5908,10 +5870,10 @@
         <v>4.85</v>
       </c>
       <c r="F157" t="n">
-        <v>20000</v>
+        <v>20926.4033</v>
       </c>
       <c r="G157" t="n">
-        <v>4.836666666666672</v>
+        <v>4.818</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5943,10 +5905,10 @@
         <v>4.85</v>
       </c>
       <c r="F158" t="n">
-        <v>45290.5154</v>
+        <v>20000</v>
       </c>
       <c r="G158" t="n">
-        <v>4.850000000000005</v>
+        <v>4.819333333333334</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5966,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="C159" t="n">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="D159" t="n">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="E159" t="n">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="F159" t="n">
-        <v>9554.915499999999</v>
+        <v>45290.5154</v>
       </c>
       <c r="G159" t="n">
-        <v>4.840000000000005</v>
+        <v>4.820666666666668</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6013,10 +5975,10 @@
         <v>4.82</v>
       </c>
       <c r="F160" t="n">
-        <v>367000</v>
+        <v>9554.915499999999</v>
       </c>
       <c r="G160" t="n">
-        <v>4.830000000000006</v>
+        <v>4.821166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6048,10 +6010,10 @@
         <v>4.82</v>
       </c>
       <c r="F161" t="n">
-        <v>81307.5768</v>
+        <v>367000</v>
       </c>
       <c r="G161" t="n">
-        <v>4.820000000000006</v>
+        <v>4.8215</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6083,10 +6045,10 @@
         <v>4.82</v>
       </c>
       <c r="F162" t="n">
-        <v>133967.3679</v>
+        <v>81307.5768</v>
       </c>
       <c r="G162" t="n">
-        <v>4.820000000000005</v>
+        <v>4.822</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6118,10 +6080,10 @@
         <v>4.82</v>
       </c>
       <c r="F163" t="n">
-        <v>21372.904</v>
+        <v>133967.3679</v>
       </c>
       <c r="G163" t="n">
-        <v>4.820000000000005</v>
+        <v>4.8225</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6153,10 +6115,10 @@
         <v>4.82</v>
       </c>
       <c r="F164" t="n">
-        <v>77812.6731</v>
+        <v>21372.904</v>
       </c>
       <c r="G164" t="n">
-        <v>4.820000000000005</v>
+        <v>4.822833333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6188,10 +6150,10 @@
         <v>4.82</v>
       </c>
       <c r="F165" t="n">
-        <v>22021.4096</v>
+        <v>77812.6731</v>
       </c>
       <c r="G165" t="n">
-        <v>4.820000000000005</v>
+        <v>4.822666666666666</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6214,19 +6176,19 @@
         <v>4.82</v>
       </c>
       <c r="C166" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="D166" t="n">
         <v>4.82</v>
       </c>
       <c r="E166" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="F166" t="n">
-        <v>108272.7785</v>
+        <v>22021.4096</v>
       </c>
       <c r="G166" t="n">
-        <v>4.816666666666671</v>
+        <v>4.823499999999999</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6246,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="C167" t="n">
         <v>4.81</v>
       </c>
       <c r="D167" t="n">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="E167" t="n">
         <v>4.81</v>
       </c>
       <c r="F167" t="n">
-        <v>249000</v>
+        <v>108272.7785</v>
       </c>
       <c r="G167" t="n">
-        <v>4.813333333333337</v>
+        <v>4.824333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6293,10 +6255,10 @@
         <v>4.81</v>
       </c>
       <c r="F168" t="n">
-        <v>28929.2728</v>
+        <v>249000</v>
       </c>
       <c r="G168" t="n">
-        <v>4.810000000000003</v>
+        <v>4.825333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6328,10 +6290,10 @@
         <v>4.81</v>
       </c>
       <c r="F169" t="n">
-        <v>323342.5662</v>
+        <v>28929.2728</v>
       </c>
       <c r="G169" t="n">
-        <v>4.810000000000003</v>
+        <v>4.826333333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6363,10 +6325,10 @@
         <v>4.81</v>
       </c>
       <c r="F170" t="n">
-        <v>234679.6851</v>
+        <v>323342.5662</v>
       </c>
       <c r="G170" t="n">
-        <v>4.810000000000003</v>
+        <v>4.827333333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6398,10 +6360,10 @@
         <v>4.81</v>
       </c>
       <c r="F171" t="n">
-        <v>624799.4997</v>
+        <v>234679.6851</v>
       </c>
       <c r="G171" t="n">
-        <v>4.810000000000003</v>
+        <v>4.8285</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6421,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.78</v>
+        <v>4.81</v>
       </c>
       <c r="C172" t="n">
-        <v>4.77</v>
+        <v>4.81</v>
       </c>
       <c r="D172" t="n">
-        <v>4.78</v>
+        <v>4.81</v>
       </c>
       <c r="E172" t="n">
-        <v>4.77</v>
+        <v>4.81</v>
       </c>
       <c r="F172" t="n">
-        <v>60000</v>
+        <v>624799.4997</v>
       </c>
       <c r="G172" t="n">
-        <v>4.79666666666667</v>
+        <v>4.829666666666666</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6456,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="C173" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="D173" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="E173" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="F173" t="n">
-        <v>927533.4666</v>
+        <v>60000</v>
       </c>
       <c r="G173" t="n">
-        <v>4.780000000000005</v>
+        <v>4.830166666666666</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6491,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C174" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D174" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E174" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F174" t="n">
-        <v>3513.5678</v>
+        <v>927533.4666</v>
       </c>
       <c r="G174" t="n">
-        <v>4.760000000000005</v>
+        <v>4.830166666666666</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6538,10 +6500,10 @@
         <v>4.75</v>
       </c>
       <c r="F175" t="n">
-        <v>354</v>
+        <v>3513.5678</v>
       </c>
       <c r="G175" t="n">
-        <v>4.753333333333338</v>
+        <v>4.829833333333332</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6573,10 +6535,10 @@
         <v>4.75</v>
       </c>
       <c r="F176" t="n">
-        <v>453623.214</v>
+        <v>354</v>
       </c>
       <c r="G176" t="n">
-        <v>4.750000000000005</v>
+        <v>4.828999999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6608,10 +6570,10 @@
         <v>4.75</v>
       </c>
       <c r="F177" t="n">
-        <v>52586.0561</v>
+        <v>453623.214</v>
       </c>
       <c r="G177" t="n">
-        <v>4.750000000000004</v>
+        <v>4.827833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6643,19 +6605,23 @@
         <v>4.75</v>
       </c>
       <c r="F178" t="n">
-        <v>13581.8667</v>
+        <v>52586.0561</v>
       </c>
       <c r="G178" t="n">
-        <v>4.750000000000004</v>
+        <v>4.826499999999999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K178" t="n">
+        <v>4.75</v>
+      </c>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
@@ -6666,32 +6632,40 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="C179" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="D179" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="E179" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="F179" t="n">
-        <v>9739.9581</v>
+        <v>13581.8667</v>
       </c>
       <c r="G179" t="n">
-        <v>4.760000000000005</v>
+        <v>4.825333333333333</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K179" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6701,32 +6675,40 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="C180" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="D180" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="E180" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="F180" t="n">
-        <v>24561.79</v>
+        <v>9739.9581</v>
       </c>
       <c r="G180" t="n">
-        <v>4.760000000000005</v>
+        <v>4.824833333333332</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K180" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6739,28 +6721,32 @@
         <v>4.75</v>
       </c>
       <c r="C181" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D181" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="E181" t="n">
         <v>4.75</v>
       </c>
       <c r="F181" t="n">
-        <v>91047.3336</v>
+        <v>24561.79</v>
       </c>
       <c r="G181" t="n">
-        <v>4.763333333333338</v>
+        <v>4.823499999999999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="K181" t="n">
+        <v>4.78</v>
+      </c>
       <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
@@ -6771,7 +6757,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="C182" t="n">
         <v>4.76</v>
@@ -6780,13 +6766,13 @@
         <v>4.76</v>
       </c>
       <c r="E182" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F182" t="n">
-        <v>25643.2766</v>
+        <v>91047.3336</v>
       </c>
       <c r="G182" t="n">
-        <v>4.75666666666667</v>
+        <v>4.822166666666666</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6795,8 +6781,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6806,22 +6798,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C183" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D183" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E183" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F183" t="n">
-        <v>3769.489</v>
+        <v>25643.2766</v>
       </c>
       <c r="G183" t="n">
-        <v>4.75666666666667</v>
+        <v>4.820666666666666</v>
       </c>
       <c r="H183" t="n">
         <v>1</v>
@@ -6833,9 +6825,13 @@
         <v>4.76</v>
       </c>
       <c r="K183" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L183" t="inlineStr"/>
+        <v>4.78</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6857,24 +6853,26 @@
         <v>4.75</v>
       </c>
       <c r="F184" t="n">
-        <v>191.8946</v>
+        <v>3769.489</v>
       </c>
       <c r="G184" t="n">
-        <v>4.753333333333337</v>
+        <v>4.818833333333332</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.76</v>
+      </c>
       <c r="K184" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M184" t="n">
@@ -6886,36 +6884,38 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="C185" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="D185" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="E185" t="n">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="F185" t="n">
-        <v>100</v>
+        <v>191.8946</v>
       </c>
       <c r="G185" t="n">
-        <v>4.763333333333337</v>
+        <v>4.816999999999998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.75</v>
+      </c>
       <c r="K185" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M185" t="n">
@@ -6927,32 +6927,40 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="C186" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="D186" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="E186" t="n">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="F186" t="n">
-        <v>201000</v>
+        <v>100</v>
       </c>
       <c r="G186" t="n">
-        <v>4.780000000000004</v>
+        <v>4.815833333333332</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K186" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6974,20 +6982,28 @@
         <v>4.8</v>
       </c>
       <c r="F187" t="n">
-        <v>200000</v>
+        <v>201000</v>
       </c>
       <c r="G187" t="n">
-        <v>4.79666666666667</v>
+        <v>4.814666666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="K187" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6997,22 +7013,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="C188" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="D188" t="n">
-        <v>4.78</v>
+        <v>4.8</v>
       </c>
       <c r="E188" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="F188" t="n">
-        <v>519546.4213</v>
+        <v>200000</v>
       </c>
       <c r="G188" t="n">
-        <v>4.783333333333338</v>
+        <v>4.813333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7021,8 +7037,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7035,19 +7057,19 @@
         <v>4.78</v>
       </c>
       <c r="C189" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="D189" t="n">
         <v>4.78</v>
       </c>
       <c r="E189" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="F189" t="n">
-        <v>101000</v>
+        <v>519546.4213</v>
       </c>
       <c r="G189" t="n">
-        <v>4.776666666666671</v>
+        <v>4.811333333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7056,8 +7078,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7067,22 +7095,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="C190" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="D190" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="E190" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="F190" t="n">
-        <v>180966.8421</v>
+        <v>101000</v>
       </c>
       <c r="G190" t="n">
-        <v>4.763333333333336</v>
+        <v>4.809666666666666</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7091,8 +7119,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7114,10 +7148,10 @@
         <v>4.76</v>
       </c>
       <c r="F191" t="n">
-        <v>17637.5347</v>
+        <v>180966.8421</v>
       </c>
       <c r="G191" t="n">
-        <v>4.76666666666667</v>
+        <v>4.807499999999999</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7126,8 +7160,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7149,10 +7189,10 @@
         <v>4.76</v>
       </c>
       <c r="F192" t="n">
-        <v>6859</v>
+        <v>17637.5347</v>
       </c>
       <c r="G192" t="n">
-        <v>4.760000000000002</v>
+        <v>4.805499999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7161,8 +7201,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7184,10 +7230,10 @@
         <v>4.76</v>
       </c>
       <c r="F193" t="n">
-        <v>150</v>
+        <v>6859</v>
       </c>
       <c r="G193" t="n">
-        <v>4.760000000000002</v>
+        <v>4.803666666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7196,8 +7242,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7219,10 +7271,10 @@
         <v>4.76</v>
       </c>
       <c r="F194" t="n">
-        <v>41209.0067</v>
+        <v>150</v>
       </c>
       <c r="G194" t="n">
-        <v>4.760000000000002</v>
+        <v>4.801666666666665</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7231,8 +7283,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7242,22 +7300,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C195" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D195" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E195" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F195" t="n">
-        <v>17560.7678</v>
+        <v>41209.0067</v>
       </c>
       <c r="G195" t="n">
-        <v>4.756666666666669</v>
+        <v>4.799833333333331</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7266,8 +7324,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7289,10 +7353,10 @@
         <v>4.75</v>
       </c>
       <c r="F196" t="n">
-        <v>28157.9021</v>
+        <v>17560.7678</v>
       </c>
       <c r="G196" t="n">
-        <v>4.753333333333337</v>
+        <v>4.797666666666665</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7301,8 +7365,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7324,10 +7394,10 @@
         <v>4.75</v>
       </c>
       <c r="F197" t="n">
-        <v>27474</v>
+        <v>28157.9021</v>
       </c>
       <c r="G197" t="n">
-        <v>4.750000000000004</v>
+        <v>4.795499999999999</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7336,8 +7406,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7359,10 +7435,10 @@
         <v>4.75</v>
       </c>
       <c r="F198" t="n">
-        <v>53251.3354</v>
+        <v>27474</v>
       </c>
       <c r="G198" t="n">
-        <v>4.750000000000004</v>
+        <v>4.792999999999998</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7371,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7382,22 +7464,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="C199" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D199" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="E199" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F199" t="n">
-        <v>8469.572899999999</v>
+        <v>53251.3354</v>
       </c>
       <c r="G199" t="n">
-        <v>4.753333333333337</v>
+        <v>4.790666666666666</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7406,8 +7488,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7429,10 +7517,10 @@
         <v>4.76</v>
       </c>
       <c r="F200" t="n">
-        <v>64881.6968</v>
+        <v>8469.572899999999</v>
       </c>
       <c r="G200" t="n">
-        <v>4.75666666666667</v>
+        <v>4.789666666666665</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7441,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7455,19 +7549,19 @@
         <v>4.76</v>
       </c>
       <c r="C201" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D201" t="n">
         <v>4.76</v>
       </c>
       <c r="E201" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F201" t="n">
-        <v>147382</v>
+        <v>64881.6968</v>
       </c>
       <c r="G201" t="n">
-        <v>4.75666666666667</v>
+        <v>4.788833333333332</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7476,8 +7570,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7499,10 +7599,10 @@
         <v>4.75</v>
       </c>
       <c r="F202" t="n">
-        <v>72292.428</v>
+        <v>147382</v>
       </c>
       <c r="G202" t="n">
-        <v>4.753333333333337</v>
+        <v>4.787833333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7511,8 +7611,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7522,36 +7628,38 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C203" t="n">
         <v>4.75</v>
       </c>
       <c r="D203" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E203" t="n">
         <v>4.75</v>
       </c>
       <c r="F203" t="n">
-        <v>75902.6972</v>
+        <v>72292.428</v>
       </c>
       <c r="G203" t="n">
-        <v>4.750000000000004</v>
+        <v>4.786833333333332</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>4.75</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L203" t="inlineStr"/>
+        <v>4.78</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7573,10 +7681,10 @@
         <v>4.75</v>
       </c>
       <c r="F204" t="n">
-        <v>31668</v>
+        <v>75902.6972</v>
       </c>
       <c r="G204" t="n">
-        <v>4.750000000000004</v>
+        <v>4.785999999999999</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7586,11 +7694,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M204" t="n">
@@ -7614,10 +7722,10 @@
         <v>4.75</v>
       </c>
       <c r="F205" t="n">
-        <v>63211</v>
+        <v>31668</v>
       </c>
       <c r="G205" t="n">
-        <v>4.750000000000004</v>
+        <v>4.785166666666665</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7627,11 +7735,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M205" t="n">
@@ -7655,10 +7763,10 @@
         <v>4.75</v>
       </c>
       <c r="F206" t="n">
-        <v>57306</v>
+        <v>63211</v>
       </c>
       <c r="G206" t="n">
-        <v>4.750000000000004</v>
+        <v>4.784333333333332</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7667,8 +7775,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7690,10 +7804,10 @@
         <v>4.75</v>
       </c>
       <c r="F207" t="n">
-        <v>593938.2497</v>
+        <v>57306</v>
       </c>
       <c r="G207" t="n">
-        <v>4.750000000000004</v>
+        <v>4.783499999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7702,8 +7816,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7725,10 +7845,10 @@
         <v>4.75</v>
       </c>
       <c r="F208" t="n">
-        <v>4857.8041</v>
+        <v>593938.2497</v>
       </c>
       <c r="G208" t="n">
-        <v>4.750000000000004</v>
+        <v>4.782666666666665</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7737,8 +7857,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7760,10 +7886,10 @@
         <v>4.75</v>
       </c>
       <c r="F209" t="n">
-        <v>2125.2892</v>
+        <v>4857.8041</v>
       </c>
       <c r="G209" t="n">
-        <v>4.750000000000004</v>
+        <v>4.781666666666665</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7772,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7786,19 +7918,19 @@
         <v>4.75</v>
       </c>
       <c r="C210" t="n">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="D210" t="n">
-        <v>4.77</v>
+        <v>4.75</v>
       </c>
       <c r="E210" t="n">
         <v>4.75</v>
       </c>
       <c r="F210" t="n">
-        <v>558105.2162</v>
+        <v>2125.2892</v>
       </c>
       <c r="G210" t="n">
-        <v>4.756666666666671</v>
+        <v>4.780666666666664</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7807,8 +7939,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7818,22 +7956,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="C211" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="D211" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="E211" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F211" t="n">
-        <v>16833.7408</v>
+        <v>558105.2162</v>
       </c>
       <c r="G211" t="n">
-        <v>4.760000000000005</v>
+        <v>4.779833333333331</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7842,8 +7980,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7853,22 +7997,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="C212" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D212" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="E212" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F212" t="n">
-        <v>101278</v>
+        <v>16833.7408</v>
       </c>
       <c r="G212" t="n">
-        <v>4.760000000000005</v>
+        <v>4.778999999999997</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7877,8 +8021,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7888,22 +8038,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="C213" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D213" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="E213" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F213" t="n">
-        <v>8795.480100000001</v>
+        <v>101278</v>
       </c>
       <c r="G213" t="n">
-        <v>4.756666666666671</v>
+        <v>4.777999999999997</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7912,8 +8062,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7935,10 +8091,10 @@
         <v>4.76</v>
       </c>
       <c r="F214" t="n">
-        <v>8791.584699999999</v>
+        <v>8795.480100000001</v>
       </c>
       <c r="G214" t="n">
-        <v>4.756666666666672</v>
+        <v>4.777166666666663</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7947,8 +8103,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7958,22 +8120,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.77</v>
+        <v>4.76</v>
       </c>
       <c r="C215" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D215" t="n">
-        <v>4.78</v>
+        <v>4.76</v>
       </c>
       <c r="E215" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F215" t="n">
-        <v>963368.7406</v>
+        <v>8791.584699999999</v>
       </c>
       <c r="G215" t="n">
-        <v>4.756666666666672</v>
+        <v>4.77633333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7982,8 +8144,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7993,22 +8161,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="C216" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D216" t="n">
-        <v>4.76</v>
+        <v>4.78</v>
       </c>
       <c r="E216" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F216" t="n">
-        <v>6923.7127</v>
+        <v>963368.7406</v>
       </c>
       <c r="G216" t="n">
-        <v>4.756666666666672</v>
+        <v>4.775333333333331</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8017,8 +8185,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8040,10 +8214,10 @@
         <v>4.76</v>
       </c>
       <c r="F217" t="n">
-        <v>7509.6794</v>
+        <v>6923.7127</v>
       </c>
       <c r="G217" t="n">
-        <v>4.756666666666672</v>
+        <v>4.77383333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8052,8 +8226,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8066,19 +8246,19 @@
         <v>4.76</v>
       </c>
       <c r="C218" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="D218" t="n">
         <v>4.76</v>
       </c>
       <c r="E218" t="n">
-        <v>4.75</v>
+        <v>4.76</v>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>7509.6794</v>
       </c>
       <c r="G218" t="n">
-        <v>4.756666666666672</v>
+        <v>4.77233333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8087,8 +8267,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8098,22 +8284,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.78</v>
+        <v>4.76</v>
       </c>
       <c r="C219" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="D219" t="n">
-        <v>4.78</v>
+        <v>4.76</v>
       </c>
       <c r="E219" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="F219" t="n">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="n">
-        <v>4.76333333333334</v>
+        <v>4.770666666666662</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8122,8 +8308,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8133,22 +8325,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="C220" t="n">
-        <v>4.73</v>
+        <v>4.78</v>
       </c>
       <c r="D220" t="n">
-        <v>4.75</v>
+        <v>4.78</v>
       </c>
       <c r="E220" t="n">
-        <v>4.73</v>
+        <v>4.78</v>
       </c>
       <c r="F220" t="n">
-        <v>120670.1863</v>
+        <v>20</v>
       </c>
       <c r="G220" t="n">
-        <v>4.753333333333339</v>
+        <v>4.769999999999995</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8157,8 +8349,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8168,22 +8366,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="C221" t="n">
-        <v>4.74</v>
+        <v>4.73</v>
       </c>
       <c r="D221" t="n">
-        <v>4.74</v>
+        <v>4.75</v>
       </c>
       <c r="E221" t="n">
-        <v>4.74</v>
+        <v>4.73</v>
       </c>
       <c r="F221" t="n">
-        <v>10</v>
+        <v>120670.1863</v>
       </c>
       <c r="G221" t="n">
-        <v>4.750000000000006</v>
+        <v>4.768499999999995</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8192,8 +8390,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8203,22 +8407,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4.75</v>
+        <v>4.74</v>
       </c>
       <c r="C222" t="n">
-        <v>4.75</v>
+        <v>4.74</v>
       </c>
       <c r="D222" t="n">
-        <v>4.75</v>
+        <v>4.74</v>
       </c>
       <c r="E222" t="n">
-        <v>4.75</v>
+        <v>4.74</v>
       </c>
       <c r="F222" t="n">
         <v>10</v>
       </c>
       <c r="G222" t="n">
-        <v>4.740000000000006</v>
+        <v>4.767166666666663</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8227,8 +8431,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8238,33 +8448,80 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="C223" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="D223" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="E223" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="F223" t="n">
+        <v>10</v>
+      </c>
+      <c r="G223" t="n">
+        <v>4.765999999999996</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C224" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D224" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F224" t="n">
         <v>14443.3921</v>
       </c>
-      <c r="G223" t="n">
-        <v>4.750000000000006</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="G224" t="n">
+        <v>4.764999999999996</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M224"/>
+  <dimension ref="A1:N234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>67615.42819999999</v>
       </c>
       <c r="G2" t="n">
+        <v>4.791999999999998</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.876333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>39055.4472</v>
       </c>
       <c r="G3" t="n">
+        <v>4.787333333333331</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.871333333333335</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>100000</v>
       </c>
       <c r="G4" t="n">
+        <v>4.781999999999997</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.866500000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>501000</v>
       </c>
       <c r="G5" t="n">
+        <v>4.776666666666665</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.861166666666668</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,27 @@
         <v>22931.4887</v>
       </c>
       <c r="G6" t="n">
+        <v>4.769333333333331</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.855500000000002</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.72</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +649,27 @@
         <v>59627.5467</v>
       </c>
       <c r="G7" t="n">
+        <v>4.759999999999997</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.848500000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.7</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +693,27 @@
         <v>4315.307</v>
       </c>
       <c r="G8" t="n">
+        <v>4.750666666666664</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.841333333333336</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.67</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +737,27 @@
         <v>184393.3589</v>
       </c>
       <c r="G9" t="n">
+        <v>4.745333333333331</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.835500000000002</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.67</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +781,27 @@
         <v>167000</v>
       </c>
       <c r="G10" t="n">
+        <v>4.742666666666665</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.831500000000003</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.72</v>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +825,25 @@
         <v>9673.217500000001</v>
       </c>
       <c r="G11" t="n">
+        <v>4.739333333333332</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.828333333333336</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +867,25 @@
         <v>137446.1793</v>
       </c>
       <c r="G12" t="n">
+        <v>4.735333333333331</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.825333333333336</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +909,25 @@
         <v>14931.7215</v>
       </c>
       <c r="G13" t="n">
+        <v>4.732666666666665</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.822666666666668</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +951,25 @@
         <v>16278.3008</v>
       </c>
       <c r="G14" t="n">
+        <v>4.729333333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.819666666666668</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +993,25 @@
         <v>7943.4671</v>
       </c>
       <c r="G15" t="n">
+        <v>4.724666666666664</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.816333333333335</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1035,25 @@
         <v>3614.4858</v>
       </c>
       <c r="G16" t="n">
+        <v>4.726666666666664</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.813500000000002</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1077,25 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
+        <v>4.733333333333331</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.811000000000003</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1119,25 @@
         <v>20112.6835</v>
       </c>
       <c r="G18" t="n">
+        <v>4.735999999999998</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.807833333333336</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1161,25 @@
         <v>45461.8947</v>
       </c>
       <c r="G19" t="n">
+        <v>4.737999999999998</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.804666666666669</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1203,25 @@
         <v>20112.6835</v>
       </c>
       <c r="G20" t="n">
+        <v>4.740666666666665</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.801666666666669</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1245,25 @@
         <v>17702.4425</v>
       </c>
       <c r="G21" t="n">
+        <v>4.744666666666665</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.799000000000002</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1287,25 @@
         <v>8541.6402</v>
       </c>
       <c r="G22" t="n">
+        <v>4.749999999999998</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.796000000000002</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1329,25 @@
         <v>8541.6402</v>
       </c>
       <c r="G23" t="n">
+        <v>4.755333333333331</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.793000000000002</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1371,25 @@
         <v>44000</v>
       </c>
       <c r="G24" t="n">
+        <v>4.759999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.790833333333335</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1413,25 @@
         <v>16646.1358</v>
       </c>
       <c r="G25" t="n">
+        <v>4.764666666666665</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.789500000000001</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1455,25 @@
         <v>36279.12</v>
       </c>
       <c r="G26" t="n">
+        <v>4.767333333333331</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.787666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1497,25 @@
         <v>134013.7817</v>
       </c>
       <c r="G27" t="n">
+        <v>4.771999999999997</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.786500000000001</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1539,25 @@
         <v>8595.7274</v>
       </c>
       <c r="G28" t="n">
+        <v>4.775333333333331</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.785000000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1581,25 @@
         <v>7870</v>
       </c>
       <c r="G29" t="n">
+        <v>4.779999999999998</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.783500000000002</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1623,25 @@
         <v>49797.99</v>
       </c>
       <c r="G30" t="n">
+        <v>4.78533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.782500000000002</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1665,25 @@
         <v>1013246.8957</v>
       </c>
       <c r="G31" t="n">
+        <v>4.793999999999998</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.782833333333334</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1707,25 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
+        <v>4.803333333333331</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.784000000000002</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1749,25 @@
         <v>30.1</v>
       </c>
       <c r="G33" t="n">
+        <v>4.817999999999998</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.786166666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,20 +1791,25 @@
         <v>207496.9348</v>
       </c>
       <c r="G34" t="n">
+        <v>4.828666666666664</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.787666666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,18 +1831,21 @@
         <v>23179.86</v>
       </c>
       <c r="G35" t="n">
+        <v>4.832666666666665</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.787500000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1869,21 @@
         <v>9779.728499999999</v>
       </c>
       <c r="G36" t="n">
+        <v>4.835999999999998</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.787166666666669</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1907,21 @@
         <v>20000</v>
       </c>
       <c r="G37" t="n">
+        <v>4.840666666666664</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.787000000000003</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1945,21 @@
         <v>58099.0165</v>
       </c>
       <c r="G38" t="n">
+        <v>4.84533333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.786833333333336</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1983,21 @@
         <v>103606.7916</v>
       </c>
       <c r="G39" t="n">
+        <v>4.845999999999996</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.786500000000003</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2021,21 @@
         <v>79097.4204</v>
       </c>
       <c r="G40" t="n">
+        <v>4.84333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.786000000000003</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2059,21 @@
         <v>9809.784</v>
       </c>
       <c r="G41" t="n">
+        <v>4.842666666666664</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.785833333333337</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2097,21 @@
         <v>17800</v>
       </c>
       <c r="G42" t="n">
+        <v>4.84333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.786833333333337</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2135,21 @@
         <v>30000</v>
       </c>
       <c r="G43" t="n">
+        <v>4.845999999999996</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.788000000000005</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2173,21 @@
         <v>8234.5825</v>
       </c>
       <c r="G44" t="n">
+        <v>4.849999999999996</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.789833333333338</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2211,21 @@
         <v>82</v>
       </c>
       <c r="G45" t="n">
+        <v>4.85333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.791166666666671</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2249,21 @@
         <v>8006.3756</v>
       </c>
       <c r="G46" t="n">
+        <v>4.852666666666663</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.792833333333337</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2287,21 @@
         <v>296232.8874</v>
       </c>
       <c r="G47" t="n">
+        <v>4.849999999999997</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.79466666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2325,21 @@
         <v>901708.2652</v>
       </c>
       <c r="G48" t="n">
+        <v>4.84533333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.79666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2363,21 @@
         <v>33928.7169</v>
       </c>
       <c r="G49" t="n">
+        <v>4.84533333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.798500000000003</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2401,21 @@
         <v>6900</v>
       </c>
       <c r="G50" t="n">
+        <v>4.85133333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.800333333333337</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2439,21 @@
         <v>5925</v>
       </c>
       <c r="G51" t="n">
+        <v>4.857999999999996</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.802000000000004</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2477,21 @@
         <v>11130.2085</v>
       </c>
       <c r="G52" t="n">
+        <v>4.863999999999996</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.803666666666671</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2515,21 @@
         <v>9534.8963</v>
       </c>
       <c r="G53" t="n">
+        <v>4.863999999999996</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.803833333333338</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2553,21 @@
         <v>51837.0055</v>
       </c>
       <c r="G54" t="n">
+        <v>4.864666666666664</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.804000000000004</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2591,21 @@
         <v>165347.9662</v>
       </c>
       <c r="G55" t="n">
+        <v>4.864666666666664</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.803833333333338</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2629,21 @@
         <v>30363.1799</v>
       </c>
       <c r="G56" t="n">
+        <v>4.863999999999996</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.803333333333337</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2667,21 @@
         <v>118163.5438</v>
       </c>
       <c r="G57" t="n">
+        <v>4.85933333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.802500000000004</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2705,25 @@
         <v>10</v>
       </c>
       <c r="G58" t="n">
+        <v>4.85733333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.802833333333337</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2747,27 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>4.854666666666663</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.803500000000002</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2791,27 @@
         <v>9600</v>
       </c>
       <c r="G60" t="n">
+        <v>4.852666666666663</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.804000000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2835,21 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
+        <v>4.849999999999996</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.805833333333336</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2873,21 @@
         <v>5421.6296</v>
       </c>
       <c r="G62" t="n">
+        <v>4.841999999999996</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.807166666666669</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2911,21 @@
         <v>30000</v>
       </c>
       <c r="G63" t="n">
+        <v>4.833333333333329</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.808166666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2949,21 @@
         <v>1010</v>
       </c>
       <c r="G64" t="n">
+        <v>4.829333333333329</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.810333333333334</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2987,21 @@
         <v>108329.2783</v>
       </c>
       <c r="G65" t="n">
+        <v>4.825333333333329</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.812500000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3025,21 @@
         <v>130897.6336</v>
       </c>
       <c r="G66" t="n">
+        <v>4.818666666666663</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.814333333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3063,21 @@
         <v>1594.2468</v>
       </c>
       <c r="G67" t="n">
+        <v>4.813999999999997</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.817166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3101,21 @@
         <v>11863.1807</v>
       </c>
       <c r="G68" t="n">
+        <v>4.813999999999997</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.819666666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3139,21 @@
         <v>78000</v>
       </c>
       <c r="G69" t="n">
+        <v>4.81533333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.821499999999999</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3177,21 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>4.818666666666663</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.822833333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3215,21 @@
         <v>51091.3012</v>
       </c>
       <c r="G71" t="n">
+        <v>4.823999999999996</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.8245</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3253,21 @@
         <v>10</v>
       </c>
       <c r="G72" t="n">
+        <v>4.828666666666662</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.825833333333333</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3291,21 @@
         <v>9974.3685</v>
       </c>
       <c r="G73" t="n">
+        <v>4.829333333333329</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.826999999999999</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3329,21 @@
         <v>1728</v>
       </c>
       <c r="G74" t="n">
+        <v>4.83133333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.828999999999999</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3367,21 @@
         <v>330</v>
       </c>
       <c r="G75" t="n">
+        <v>4.833333333333329</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.831166666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3405,21 @@
         <v>166</v>
       </c>
       <c r="G76" t="n">
+        <v>4.834666666666664</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.832833333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3443,21 @@
         <v>554453.5943</v>
       </c>
       <c r="G77" t="n">
+        <v>4.83733333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.833166666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3481,21 @@
         <v>172157.8257</v>
       </c>
       <c r="G78" t="n">
+        <v>4.83933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.834</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3519,21 @@
         <v>182040.0874</v>
       </c>
       <c r="G79" t="n">
+        <v>4.836666666666663</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.834999999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3557,21 @@
         <v>200255.6813</v>
       </c>
       <c r="G80" t="n">
+        <v>4.832666666666665</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.8355</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3595,21 @@
         <v>16936.4961</v>
       </c>
       <c r="G81" t="n">
+        <v>4.833333333333331</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.8365</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3633,21 @@
         <v>10650.6396</v>
       </c>
       <c r="G82" t="n">
+        <v>4.831999999999997</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.837666666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3671,21 @@
         <v>9706.0041</v>
       </c>
       <c r="G83" t="n">
+        <v>4.832666666666664</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.839</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3709,21 @@
         <v>320</v>
       </c>
       <c r="G84" t="n">
+        <v>4.831333333333331</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.839333333333332</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3747,21 @@
         <v>20316.3906</v>
       </c>
       <c r="G85" t="n">
+        <v>4.82733333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.838499999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3785,21 @@
         <v>10158.1953</v>
       </c>
       <c r="G86" t="n">
+        <v>4.82333333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.838499999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3823,21 @@
         <v>2731.8047</v>
       </c>
       <c r="G87" t="n">
+        <v>4.819999999999997</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.837833333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3861,21 @@
         <v>9564.415000000001</v>
       </c>
       <c r="G88" t="n">
+        <v>4.817333333333331</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.837499999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3899,25 @@
         <v>28727.0471</v>
       </c>
       <c r="G89" t="n">
+        <v>4.812666666666664</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.837166666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="L89" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3941,27 @@
         <v>163223.8908</v>
       </c>
       <c r="G90" t="n">
+        <v>4.807333333333331</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.836666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3985,27 @@
         <v>45222.3218</v>
       </c>
       <c r="G91" t="n">
+        <v>4.800666666666664</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.8345</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4029,27 @@
         <v>24870.5899</v>
       </c>
       <c r="G92" t="n">
+        <v>4.797999999999998</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.831833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4073,27 @@
         <v>8216.196599999999</v>
       </c>
       <c r="G93" t="n">
+        <v>4.796666666666665</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.828666666666666</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4117,27 @@
         <v>359129.6912</v>
       </c>
       <c r="G94" t="n">
+        <v>4.793999999999998</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.826333333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4161,27 @@
         <v>120485</v>
       </c>
       <c r="G95" t="n">
+        <v>4.793333333333331</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.825666666666665</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4205,27 @@
         <v>78000</v>
       </c>
       <c r="G96" t="n">
+        <v>4.788666666666663</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.824666666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4249,27 @@
         <v>323206.1375</v>
       </c>
       <c r="G97" t="n">
+        <v>4.784666666666664</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.823666666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4293,27 @@
         <v>7769.0222</v>
       </c>
       <c r="G98" t="n">
+        <v>4.780666666666663</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.822833333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4337,27 @@
         <v>59267.9777</v>
       </c>
       <c r="G99" t="n">
+        <v>4.777999999999996</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.822333333333331</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4381,27 @@
         <v>277161.8648</v>
       </c>
       <c r="G100" t="n">
+        <v>4.778666666666664</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.822333333333331</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4425,27 @@
         <v>889336.3585</v>
       </c>
       <c r="G101" t="n">
+        <v>4.778666666666664</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.822499999999997</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4469,27 @@
         <v>350000</v>
       </c>
       <c r="G102" t="n">
+        <v>4.77933333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.821833333333331</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4513,27 @@
         <v>24424.4262</v>
       </c>
       <c r="G103" t="n">
+        <v>4.77933333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.820833333333331</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4557,27 @@
         <v>7896.4903</v>
       </c>
       <c r="G104" t="n">
+        <v>4.779999999999997</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.819666666666665</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4601,27 @@
         <v>8430.5803</v>
       </c>
       <c r="G105" t="n">
+        <v>4.782666666666662</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.818999999999998</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4645,27 @@
         <v>61271.0492</v>
       </c>
       <c r="G106" t="n">
+        <v>4.782666666666662</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.816999999999998</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4689,27 @@
         <v>18113.947</v>
       </c>
       <c r="G107" t="n">
+        <v>4.78133333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.814666666666665</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4733,27 @@
         <v>111705.4736</v>
       </c>
       <c r="G108" t="n">
+        <v>4.778666666666663</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.811999999999998</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4777,27 @@
         <v>210970.4641</v>
       </c>
       <c r="G109" t="n">
+        <v>4.777333333333329</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.80933333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4821,27 @@
         <v>209197.603</v>
       </c>
       <c r="G110" t="n">
+        <v>4.77533333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.806666666666663</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4865,27 @@
         <v>25340.1458</v>
       </c>
       <c r="G111" t="n">
+        <v>4.774666666666662</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.80383333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4909,27 @@
         <v>42770</v>
       </c>
       <c r="G112" t="n">
+        <v>4.773333333333328</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.800999999999997</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4953,27 @@
         <v>20082</v>
       </c>
       <c r="G113" t="n">
+        <v>4.771333333333328</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.799666666666663</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4997,27 @@
         <v>166692.5576</v>
       </c>
       <c r="G114" t="n">
+        <v>4.770666666666662</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.79883333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +5041,27 @@
         <v>3257.0117</v>
       </c>
       <c r="G115" t="n">
+        <v>4.769333333333328</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.798499999999995</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +5085,27 @@
         <v>16667.936</v>
       </c>
       <c r="G116" t="n">
+        <v>4.769333333333328</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.79883333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +5129,27 @@
         <v>41204.0764</v>
       </c>
       <c r="G117" t="n">
+        <v>4.771333333333328</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.799833333333329</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +5173,27 @@
         <v>16492.2877</v>
       </c>
       <c r="G118" t="n">
+        <v>4.773999999999995</v>
+      </c>
+      <c r="H118" t="n">
         <v>4.799999999999996</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +5217,27 @@
         <v>17483.4437</v>
       </c>
       <c r="G119" t="n">
+        <v>4.775333333333328</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.799833333333329</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5261,27 @@
         <v>105000</v>
       </c>
       <c r="G120" t="n">
+        <v>4.773999999999996</v>
+      </c>
+      <c r="H120" t="n">
         <v>4.799333333333331</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5305,27 @@
         <v>42687.7846</v>
       </c>
       <c r="G121" t="n">
+        <v>4.777999999999995</v>
+      </c>
+      <c r="H121" t="n">
         <v>4.798999999999996</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5349,27 @@
         <v>500</v>
       </c>
       <c r="G122" t="n">
+        <v>4.783333333333329</v>
+      </c>
+      <c r="H122" t="n">
         <v>4.799999999999996</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5393,27 @@
         <v>500</v>
       </c>
       <c r="G123" t="n">
+        <v>4.789999999999995</v>
+      </c>
+      <c r="H123" t="n">
         <v>4.801166666666663</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5437,27 @@
         <v>2765.3298</v>
       </c>
       <c r="G124" t="n">
+        <v>4.797333333333328</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.80133333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5481,27 @@
         <v>20500</v>
       </c>
       <c r="G125" t="n">
+        <v>4.804666666666662</v>
+      </c>
+      <c r="H125" t="n">
         <v>4.801499999999996</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5525,27 @@
         <v>5367.687</v>
       </c>
       <c r="G126" t="n">
+        <v>4.812666666666662</v>
+      </c>
+      <c r="H126" t="n">
         <v>4.802333333333331</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5569,27 @@
         <v>87778.8091</v>
       </c>
       <c r="G127" t="n">
+        <v>4.821333333333329</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.80283333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5613,27 @@
         <v>500</v>
       </c>
       <c r="G128" t="n">
+        <v>4.830666666666662</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.803833333333331</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5657,27 @@
         <v>42581.0651</v>
       </c>
       <c r="G129" t="n">
+        <v>4.837999999999996</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.804499999999998</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5701,27 @@
         <v>94974.4777</v>
       </c>
       <c r="G130" t="n">
+        <v>4.845333333333329</v>
+      </c>
+      <c r="H130" t="n">
         <v>4.805166666666665</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,19 +5745,28 @@
         <v>105650.1813</v>
       </c>
       <c r="G131" t="n">
+        <v>4.851333333333329</v>
+      </c>
+      <c r="H131" t="n">
         <v>4.805666666666665</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
+      <c r="L131" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>1.015876826722338</v>
       </c>
     </row>
     <row r="132">
@@ -4998,18 +5789,21 @@
         <v>32662.1664</v>
       </c>
       <c r="G132" t="n">
+        <v>4.855333333333329</v>
+      </c>
+      <c r="H132" t="n">
         <v>4.806499999999998</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5827,21 @@
         <v>309707.2032</v>
       </c>
       <c r="G133" t="n">
+        <v>4.857999999999995</v>
+      </c>
+      <c r="H133" t="n">
         <v>4.807166666666665</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5865,21 @@
         <v>23387.8956</v>
       </c>
       <c r="G134" t="n">
+        <v>4.861999999999995</v>
+      </c>
+      <c r="H134" t="n">
         <v>4.807499999999998</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5903,21 @@
         <v>70325.67140000001</v>
       </c>
       <c r="G135" t="n">
+        <v>4.865999999999995</v>
+      </c>
+      <c r="H135" t="n">
         <v>4.807499999999998</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5941,21 @@
         <v>0.0004</v>
       </c>
       <c r="G136" t="n">
+        <v>4.869333333333328</v>
+      </c>
+      <c r="H136" t="n">
         <v>4.807666666666664</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5979,21 @@
         <v>423280.7373</v>
       </c>
       <c r="G137" t="n">
+        <v>4.871999999999995</v>
+      </c>
+      <c r="H137" t="n">
         <v>4.808666666666665</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +6017,21 @@
         <v>500</v>
       </c>
       <c r="G138" t="n">
+        <v>4.875333333333328</v>
+      </c>
+      <c r="H138" t="n">
         <v>4.810166666666664</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +6055,21 @@
         <v>487.2719</v>
       </c>
       <c r="G139" t="n">
+        <v>4.877333333333328</v>
+      </c>
+      <c r="H139" t="n">
         <v>4.811499999999997</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +6093,21 @@
         <v>601843</v>
       </c>
       <c r="G140" t="n">
+        <v>4.874666666666662</v>
+      </c>
+      <c r="H140" t="n">
         <v>4.811999999999997</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +6131,21 @@
         <v>1046859.1277</v>
       </c>
       <c r="G141" t="n">
+        <v>4.871333333333329</v>
+      </c>
+      <c r="H141" t="n">
         <v>4.81183333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6169,21 @@
         <v>32772.2522</v>
       </c>
       <c r="G142" t="n">
+        <v>4.867333333333329</v>
+      </c>
+      <c r="H142" t="n">
         <v>4.811666666666664</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6207,21 @@
         <v>219297.5591</v>
       </c>
       <c r="G143" t="n">
+        <v>4.862666666666663</v>
+      </c>
+      <c r="H143" t="n">
         <v>4.811333333333331</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6245,21 @@
         <v>44353</v>
       </c>
       <c r="G144" t="n">
+        <v>4.857999999999995</v>
+      </c>
+      <c r="H144" t="n">
         <v>4.811166666666664</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6283,21 @@
         <v>48711.0736</v>
       </c>
       <c r="G145" t="n">
+        <v>4.852666666666662</v>
+      </c>
+      <c r="H145" t="n">
         <v>4.811499999999998</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6321,21 @@
         <v>55294.5336</v>
       </c>
       <c r="G146" t="n">
+        <v>4.846666666666662</v>
+      </c>
+      <c r="H146" t="n">
         <v>4.811499999999998</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6359,21 @@
         <v>14194.9272</v>
       </c>
       <c r="G147" t="n">
+        <v>4.841333333333329</v>
+      </c>
+      <c r="H147" t="n">
         <v>4.811833333333332</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6397,21 @@
         <v>3101.2662</v>
       </c>
       <c r="G148" t="n">
+        <v>4.836666666666662</v>
+      </c>
+      <c r="H148" t="n">
         <v>4.811999999999999</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6435,21 @@
         <v>694894.8944</v>
       </c>
       <c r="G149" t="n">
+        <v>4.831999999999995</v>
+      </c>
+      <c r="H149" t="n">
         <v>4.812333333333331</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6473,21 @@
         <v>358381.8114</v>
       </c>
       <c r="G150" t="n">
+        <v>4.827999999999995</v>
+      </c>
+      <c r="H150" t="n">
         <v>4.812666666666664</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6511,21 @@
         <v>103906.9571</v>
       </c>
       <c r="G151" t="n">
+        <v>4.823999999999995</v>
+      </c>
+      <c r="H151" t="n">
         <v>4.813499999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6549,21 @@
         <v>31840.1431</v>
       </c>
       <c r="G152" t="n">
+        <v>4.819333333333329</v>
+      </c>
+      <c r="H152" t="n">
         <v>4.813999999999998</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6587,21 @@
         <v>187307.0116</v>
       </c>
       <c r="G153" t="n">
+        <v>4.813333333333329</v>
+      </c>
+      <c r="H153" t="n">
         <v>4.814333333333332</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6625,25 @@
         <v>153020</v>
       </c>
       <c r="G154" t="n">
+        <v>4.807999999999995</v>
+      </c>
+      <c r="H154" t="n">
         <v>4.814999999999999</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6667,27 @@
         <v>139121.9999</v>
       </c>
       <c r="G155" t="n">
+        <v>4.807333333333329</v>
+      </c>
+      <c r="H155" t="n">
         <v>4.815499999999999</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6711,29 @@
         <v>9261</v>
       </c>
       <c r="G156" t="n">
+        <v>4.807333333333329</v>
+      </c>
+      <c r="H156" t="n">
         <v>4.8165</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="L156" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6757,25 @@
         <v>20926.4033</v>
       </c>
       <c r="G157" t="n">
+        <v>4.809999999999994</v>
+      </c>
+      <c r="H157" t="n">
         <v>4.818</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="L157" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6799,27 @@
         <v>20000</v>
       </c>
       <c r="G158" t="n">
+        <v>4.812666666666661</v>
+      </c>
+      <c r="H158" t="n">
         <v>4.819333333333334</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6843,27 @@
         <v>45290.5154</v>
       </c>
       <c r="G159" t="n">
+        <v>4.815999999999994</v>
+      </c>
+      <c r="H159" t="n">
         <v>4.820666666666668</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6887,21 @@
         <v>9554.915499999999</v>
       </c>
       <c r="G160" t="n">
+        <v>4.817333333333328</v>
+      </c>
+      <c r="H160" t="n">
         <v>4.821166666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6925,21 @@
         <v>367000</v>
       </c>
       <c r="G161" t="n">
+        <v>4.818666666666662</v>
+      </c>
+      <c r="H161" t="n">
         <v>4.8215</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6963,25 @@
         <v>81307.5768</v>
       </c>
       <c r="G162" t="n">
+        <v>4.819999999999996</v>
+      </c>
+      <c r="H162" t="n">
         <v>4.822</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="L162" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +7005,29 @@
         <v>133967.3679</v>
       </c>
       <c r="G163" t="n">
+        <v>4.82133333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>4.8225</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="L163" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +7051,29 @@
         <v>21372.904</v>
       </c>
       <c r="G164" t="n">
+        <v>4.821999999999997</v>
+      </c>
+      <c r="H164" t="n">
         <v>4.822833333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="L164" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7097,25 @@
         <v>77812.6731</v>
       </c>
       <c r="G165" t="n">
+        <v>4.822666666666663</v>
+      </c>
+      <c r="H165" t="n">
         <v>4.822666666666666</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="L165" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7139,29 @@
         <v>22021.4096</v>
       </c>
       <c r="G166" t="n">
+        <v>4.822666666666663</v>
+      </c>
+      <c r="H166" t="n">
         <v>4.823499999999999</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="L166" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7185,29 @@
         <v>108272.7785</v>
       </c>
       <c r="G167" t="n">
+        <v>4.822666666666663</v>
+      </c>
+      <c r="H167" t="n">
         <v>4.824333333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="L167" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7231,27 @@
         <v>249000</v>
       </c>
       <c r="G168" t="n">
+        <v>4.822666666666663</v>
+      </c>
+      <c r="H168" t="n">
         <v>4.825333333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7275,27 @@
         <v>28929.2728</v>
       </c>
       <c r="G169" t="n">
+        <v>4.822666666666663</v>
+      </c>
+      <c r="H169" t="n">
         <v>4.826333333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7319,27 @@
         <v>323342.5662</v>
       </c>
       <c r="G170" t="n">
+        <v>4.822666666666663</v>
+      </c>
+      <c r="H170" t="n">
         <v>4.827333333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7363,27 @@
         <v>234679.6851</v>
       </c>
       <c r="G171" t="n">
+        <v>4.822666666666663</v>
+      </c>
+      <c r="H171" t="n">
         <v>4.8285</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7407,27 @@
         <v>624799.4997</v>
       </c>
       <c r="G172" t="n">
+        <v>4.819999999999997</v>
+      </c>
+      <c r="H172" t="n">
         <v>4.829666666666666</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7451,27 @@
         <v>60000</v>
       </c>
       <c r="G173" t="n">
+        <v>4.814666666666664</v>
+      </c>
+      <c r="H173" t="n">
         <v>4.830166666666666</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7495,27 @@
         <v>927533.4666</v>
       </c>
       <c r="G174" t="n">
+        <v>4.808666666666665</v>
+      </c>
+      <c r="H174" t="n">
         <v>4.830166666666666</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7539,27 @@
         <v>3513.5678</v>
       </c>
       <c r="G175" t="n">
+        <v>4.803999999999998</v>
+      </c>
+      <c r="H175" t="n">
         <v>4.829833333333332</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7583,27 @@
         <v>354</v>
       </c>
       <c r="G176" t="n">
+        <v>4.799333333333332</v>
+      </c>
+      <c r="H176" t="n">
         <v>4.828999999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7627,27 @@
         <v>453623.214</v>
       </c>
       <c r="G177" t="n">
+        <v>4.794666666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>4.827833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,22 +7671,27 @@
         <v>52586.0561</v>
       </c>
       <c r="G178" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H178" t="n">
         <v>4.826499999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K178" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6647,26 +7715,27 @@
         <v>13581.8667</v>
       </c>
       <c r="G179" t="n">
+        <v>4.785333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>4.825333333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K179" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6690,26 +7759,27 @@
         <v>9739.9581</v>
       </c>
       <c r="G180" t="n">
+        <v>4.782666666666668</v>
+      </c>
+      <c r="H180" t="n">
         <v>4.824833333333332</v>
       </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K180" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6733,22 +7803,27 @@
         <v>24561.79</v>
       </c>
       <c r="G181" t="n">
+        <v>4.778000000000001</v>
+      </c>
+      <c r="H181" t="n">
         <v>4.823499999999999</v>
       </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="K181" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6772,24 +7847,27 @@
         <v>91047.3336</v>
       </c>
       <c r="G182" t="n">
+        <v>4.774666666666668</v>
+      </c>
+      <c r="H182" t="n">
         <v>4.822166666666666</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6813,26 +7891,27 @@
         <v>25643.2766</v>
       </c>
       <c r="G183" t="n">
+        <v>4.771333333333335</v>
+      </c>
+      <c r="H183" t="n">
         <v>4.820666666666666</v>
       </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K183" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6856,26 +7935,27 @@
         <v>3769.489</v>
       </c>
       <c r="G184" t="n">
+        <v>4.767333333333335</v>
+      </c>
+      <c r="H184" t="n">
         <v>4.818833333333332</v>
       </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K184" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,26 +7979,27 @@
         <v>191.8946</v>
       </c>
       <c r="G185" t="n">
+        <v>4.763333333333335</v>
+      </c>
+      <c r="H185" t="n">
         <v>4.816999999999998</v>
       </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K185" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6942,26 +8023,27 @@
         <v>100</v>
       </c>
       <c r="G186" t="n">
+        <v>4.762000000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>4.815833333333332</v>
       </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K186" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6985,26 +8067,27 @@
         <v>201000</v>
       </c>
       <c r="G187" t="n">
+        <v>4.761333333333335</v>
+      </c>
+      <c r="H187" t="n">
         <v>4.814666666666666</v>
       </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="K187" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,24 +8111,27 @@
         <v>200000</v>
       </c>
       <c r="G188" t="n">
+        <v>4.763333333333335</v>
+      </c>
+      <c r="H188" t="n">
         <v>4.813333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7069,24 +8155,27 @@
         <v>519546.4213</v>
       </c>
       <c r="G189" t="n">
+        <v>4.762666666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>4.811333333333333</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7110,24 +8199,27 @@
         <v>101000</v>
       </c>
       <c r="G190" t="n">
+        <v>4.764666666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>4.809666666666666</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,24 +8243,27 @@
         <v>180966.8421</v>
       </c>
       <c r="G191" t="n">
+        <v>4.765333333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>4.807499999999999</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7192,24 +8287,27 @@
         <v>17637.5347</v>
       </c>
       <c r="G192" t="n">
+        <v>4.766000000000002</v>
+      </c>
+      <c r="H192" t="n">
         <v>4.805499999999999</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7233,24 +8331,27 @@
         <v>6859</v>
       </c>
       <c r="G193" t="n">
+        <v>4.766666666666668</v>
+      </c>
+      <c r="H193" t="n">
         <v>4.803666666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7274,24 +8375,27 @@
         <v>150</v>
       </c>
       <c r="G194" t="n">
+        <v>4.767333333333336</v>
+      </c>
+      <c r="H194" t="n">
         <v>4.801666666666665</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7315,24 +8419,27 @@
         <v>41209.0067</v>
       </c>
       <c r="G195" t="n">
+        <v>4.766000000000003</v>
+      </c>
+      <c r="H195" t="n">
         <v>4.799833333333331</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7356,24 +8463,27 @@
         <v>17560.7678</v>
       </c>
       <c r="G196" t="n">
+        <v>4.766000000000003</v>
+      </c>
+      <c r="H196" t="n">
         <v>4.797666666666665</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7397,24 +8507,27 @@
         <v>28157.9021</v>
       </c>
       <c r="G197" t="n">
+        <v>4.765333333333335</v>
+      </c>
+      <c r="H197" t="n">
         <v>4.795499999999999</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7438,24 +8551,27 @@
         <v>27474</v>
       </c>
       <c r="G198" t="n">
+        <v>4.764666666666669</v>
+      </c>
+      <c r="H198" t="n">
         <v>4.792999999999998</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7479,24 +8595,27 @@
         <v>53251.3354</v>
       </c>
       <c r="G199" t="n">
+        <v>4.764666666666669</v>
+      </c>
+      <c r="H199" t="n">
         <v>4.790666666666666</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7520,24 +8639,27 @@
         <v>8469.572899999999</v>
       </c>
       <c r="G200" t="n">
+        <v>4.765333333333335</v>
+      </c>
+      <c r="H200" t="n">
         <v>4.789666666666665</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7561,24 +8683,27 @@
         <v>64881.6968</v>
       </c>
       <c r="G201" t="n">
+        <v>4.763333333333335</v>
+      </c>
+      <c r="H201" t="n">
         <v>4.788833333333332</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7602,24 +8727,27 @@
         <v>147382</v>
       </c>
       <c r="G202" t="n">
+        <v>4.760000000000002</v>
+      </c>
+      <c r="H202" t="n">
         <v>4.787833333333332</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,24 +8771,27 @@
         <v>72292.428</v>
       </c>
       <c r="G203" t="n">
+        <v>4.756666666666669</v>
+      </c>
+      <c r="H203" t="n">
         <v>4.786833333333332</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7684,24 +8815,27 @@
         <v>75902.6972</v>
       </c>
       <c r="G204" t="n">
+        <v>4.756666666666669</v>
+      </c>
+      <c r="H204" t="n">
         <v>4.785999999999999</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7725,24 +8859,27 @@
         <v>31668</v>
       </c>
       <c r="G205" t="n">
+        <v>4.754666666666669</v>
+      </c>
+      <c r="H205" t="n">
         <v>4.785166666666665</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7766,24 +8903,27 @@
         <v>63211</v>
       </c>
       <c r="G206" t="n">
+        <v>4.754000000000002</v>
+      </c>
+      <c r="H206" t="n">
         <v>4.784333333333332</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7807,24 +8947,27 @@
         <v>57306</v>
       </c>
       <c r="G207" t="n">
+        <v>4.753333333333335</v>
+      </c>
+      <c r="H207" t="n">
         <v>4.783499999999998</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7848,24 +8991,27 @@
         <v>593938.2497</v>
       </c>
       <c r="G208" t="n">
+        <v>4.752666666666668</v>
+      </c>
+      <c r="H208" t="n">
         <v>4.782666666666665</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7889,24 +9035,27 @@
         <v>4857.8041</v>
       </c>
       <c r="G209" t="n">
+        <v>4.752000000000001</v>
+      </c>
+      <c r="H209" t="n">
         <v>4.781666666666665</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7930,24 +9079,27 @@
         <v>2125.2892</v>
       </c>
       <c r="G210" t="n">
+        <v>4.751333333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>4.780666666666664</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7971,24 +9123,27 @@
         <v>558105.2162</v>
       </c>
       <c r="G211" t="n">
+        <v>4.752666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>4.779833333333331</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8012,24 +9167,27 @@
         <v>16833.7408</v>
       </c>
       <c r="G212" t="n">
+        <v>4.753333333333334</v>
+      </c>
+      <c r="H212" t="n">
         <v>4.778999999999997</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8053,24 +9211,27 @@
         <v>101278</v>
       </c>
       <c r="G213" t="n">
+        <v>4.753333333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>4.777999999999997</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8094,24 +9255,27 @@
         <v>8795.480100000001</v>
       </c>
       <c r="G214" t="n">
+        <v>4.754000000000001</v>
+      </c>
+      <c r="H214" t="n">
         <v>4.777166666666663</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8135,24 +9299,27 @@
         <v>8791.584699999999</v>
       </c>
       <c r="G215" t="n">
+        <v>4.754000000000001</v>
+      </c>
+      <c r="H215" t="n">
         <v>4.77633333333333</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8176,24 +9343,27 @@
         <v>963368.7406</v>
       </c>
       <c r="G216" t="n">
+        <v>4.753333333333334</v>
+      </c>
+      <c r="H216" t="n">
         <v>4.775333333333331</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8217,24 +9387,27 @@
         <v>6923.7127</v>
       </c>
       <c r="G217" t="n">
+        <v>4.754000000000001</v>
+      </c>
+      <c r="H217" t="n">
         <v>4.77383333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8258,24 +9431,27 @@
         <v>7509.6794</v>
       </c>
       <c r="G218" t="n">
+        <v>4.754666666666668</v>
+      </c>
+      <c r="H218" t="n">
         <v>4.77233333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8299,24 +9475,27 @@
         <v>10000</v>
       </c>
       <c r="G219" t="n">
+        <v>4.754666666666668</v>
+      </c>
+      <c r="H219" t="n">
         <v>4.770666666666662</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8340,24 +9519,27 @@
         <v>20</v>
       </c>
       <c r="G220" t="n">
+        <v>4.756666666666669</v>
+      </c>
+      <c r="H220" t="n">
         <v>4.769999999999995</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8381,24 +9563,27 @@
         <v>120670.1863</v>
       </c>
       <c r="G221" t="n">
+        <v>4.755333333333335</v>
+      </c>
+      <c r="H221" t="n">
         <v>4.768499999999995</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8422,24 +9607,29 @@
         <v>10</v>
       </c>
       <c r="G222" t="n">
+        <v>4.754666666666668</v>
+      </c>
+      <c r="H222" t="n">
         <v>4.767166666666663</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="L222" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,24 +9653,29 @@
         <v>10</v>
       </c>
       <c r="G223" t="n">
+        <v>4.754666666666668</v>
+      </c>
+      <c r="H223" t="n">
         <v>4.765999999999996</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="L223" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8504,24 +9699,489 @@
         <v>14443.3921</v>
       </c>
       <c r="G224" t="n">
+        <v>4.755333333333335</v>
+      </c>
+      <c r="H224" t="n">
         <v>4.764999999999996</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L224" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F225" t="n">
+        <v>147408.2205</v>
+      </c>
+      <c r="G225" t="n">
+        <v>4.755333333333335</v>
+      </c>
+      <c r="H225" t="n">
+        <v>4.763833333333329</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L225" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F226" t="n">
+        <v>10</v>
+      </c>
+      <c r="G226" t="n">
+        <v>4.754666666666669</v>
+      </c>
+      <c r="H226" t="n">
+        <v>4.762833333333329</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="L226" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F227" t="n">
+        <v>58442.9999</v>
+      </c>
+      <c r="G227" t="n">
+        <v>4.755333333333335</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.762166666666662</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="L227" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F228" t="n">
+        <v>6543.9999</v>
+      </c>
+      <c r="G228" t="n">
+        <v>4.756666666666669</v>
+      </c>
+      <c r="H228" t="n">
+        <v>4.761499999999995</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="L228" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F229" t="n">
+        <v>27815.8866</v>
+      </c>
+      <c r="G229" t="n">
+        <v>4.757333333333334</v>
+      </c>
+      <c r="H229" t="n">
+        <v>4.760833333333328</v>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="L229" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
         <v>4.78</v>
       </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="C230" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20</v>
+      </c>
+      <c r="G230" t="n">
+        <v>4.759333333333334</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4.760499999999995</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="L230" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F231" t="n">
+        <v>10</v>
+      </c>
+      <c r="G231" t="n">
+        <v>4.762666666666667</v>
+      </c>
+      <c r="H231" t="n">
+        <v>4.760333333333329</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="L231" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F232" t="n">
+        <v>53013.0434</v>
+      </c>
+      <c r="G232" t="n">
+        <v>4.767333333333334</v>
+      </c>
+      <c r="H232" t="n">
+        <v>4.760666666666662</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L232" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F233" t="n">
+        <v>8734.8855</v>
+      </c>
+      <c r="G233" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="H233" t="n">
+        <v>4.761166666666663</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="L233" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2602.0404</v>
+      </c>
+      <c r="G234" t="n">
+        <v>4.774666666666667</v>
+      </c>
+      <c r="H234" t="n">
+        <v>4.762166666666662</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L234" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N292"/>
+  <dimension ref="A1:M292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>61774.65861889817</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-89191.79818110184</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>138498.8956188982</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>138498.8956188982</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>127788.8956188982</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-1750670.298381102</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>-2251348.200981102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,24 +1738,15 @@
         <v>-1223348.668981102</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>4.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1904,20 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1944,20 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1984,20 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2024,20 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2064,20 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2104,20 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2144,20 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2184,20 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2224,20 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2264,20 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2304,20 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2344,20 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,20 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2424,20 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2464,20 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2504,20 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2544,20 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2584,20 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2624,20 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2664,20 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2704,20 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2744,20 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2784,20 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2824,20 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2864,20 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2902,24 +2596,15 @@
         <v>-617868.5292811017</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2944,24 +2629,15 @@
         <v>-450868.5292811017</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2988,20 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3028,20 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3068,20 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3108,20 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3148,20 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3188,20 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3228,20 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3268,20 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3308,20 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3348,20 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3388,20 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3428,20 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3468,20 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3508,20 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3548,20 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3588,20 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3628,20 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3668,20 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3708,20 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3748,20 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3788,20 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3828,20 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3868,20 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3908,20 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3948,20 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3988,20 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4028,20 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4068,20 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4108,20 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4146,22 +3619,21 @@
         <v>169668.9835188984</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4186,22 +3658,21 @@
         <v>169668.9835188984</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4226,22 +3697,21 @@
         <v>187468.9835188984</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4268,20 +3738,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4306,22 +3773,21 @@
         <v>225703.5660188984</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4348,20 +3814,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4388,20 +3851,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4428,20 +3888,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4466,22 +3923,19 @@
         <v>1431651.094218899</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4508,20 +3962,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4546,22 +3997,19 @@
         <v>1431651.094218899</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4586,22 +4034,19 @@
         <v>1431651.094218899</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4628,20 +4073,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4668,20 +4110,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4708,20 +4147,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4748,20 +4184,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4788,20 +4221,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4828,20 +4258,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4868,20 +4295,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4908,20 +4332,17 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4948,20 +4369,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4988,20 +4406,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5028,20 +4443,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5068,20 +4480,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5108,20 +4517,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5148,20 +4554,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5188,20 +4591,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5228,20 +4628,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5268,20 +4665,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5308,20 +4702,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5348,20 +4739,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5388,20 +4776,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5428,20 +4813,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5466,22 +4848,17 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5506,22 +4883,15 @@
         <v>1051275.606618898</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5548,20 +4918,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5588,20 +4951,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5628,20 +4984,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5668,20 +5017,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5708,20 +5050,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5748,20 +5083,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5788,20 +5116,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5828,20 +5149,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5868,20 +5182,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5908,20 +5215,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5948,20 +5248,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5988,20 +5281,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6028,20 +5314,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6068,20 +5347,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6108,20 +5380,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6148,20 +5413,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6188,20 +5446,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6228,20 +5479,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6268,20 +5512,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6308,20 +5545,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6348,20 +5578,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6388,20 +5611,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6428,20 +5644,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6468,20 +5677,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6508,20 +5710,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6548,20 +5743,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6588,20 +5776,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6628,20 +5809,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6668,20 +5842,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6708,20 +5875,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6748,20 +5908,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6788,20 +5941,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6828,20 +5974,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6866,22 +6005,19 @@
         <v>791665.1778188983</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="J166" t="n">
+        <v>4.76</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6906,22 +6042,23 @@
         <v>791665.1778188983</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J167" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6946,22 +6083,23 @@
         <v>791665.1778188983</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J168" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6986,22 +6124,19 @@
         <v>766325.0320188983</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J169" t="n">
+        <v>4.75</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7026,22 +6161,23 @@
         <v>766325.0320188983</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>4.74</v>
+      </c>
+      <c r="J170" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7068,20 +6204,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7106,22 +6241,19 @@
         <v>933017.5896188982</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>4.74</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4.74</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7146,22 +6278,23 @@
         <v>936274.6013188983</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7186,22 +6319,23 @@
         <v>952942.5373188982</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>4.77</v>
+      </c>
+      <c r="J174" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7226,22 +6360,19 @@
         <v>994146.6137188983</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>4.8</v>
+      </c>
+      <c r="J175" t="n">
+        <v>4.8</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7268,20 +6399,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7308,20 +6438,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7348,20 +6477,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7388,20 +6510,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7428,20 +6543,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7468,20 +6576,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7508,20 +6609,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7548,20 +6642,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7586,22 +6673,15 @@
         <v>934608.5721188983</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7626,22 +6706,15 @@
         <v>1022387.381218898</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7668,18 +6741,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L186" t="n">
+        <v>1</v>
       </c>
       <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7706,16 +6774,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7740,18 +6805,15 @@
         <v>1075280.793818898</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7776,18 +6838,15 @@
         <v>1180930.975118898</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7812,18 +6871,15 @@
         <v>1148268.808718898</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7848,18 +6904,15 @@
         <v>838561.6055188983</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7884,18 +6937,15 @@
         <v>861949.5011188984</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7920,18 +6970,15 @@
         <v>791623.8297188984</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7956,18 +7003,15 @@
         <v>791623.8301188984</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7992,18 +7036,15 @@
         <v>791623.8301188984</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8028,18 +7069,15 @@
         <v>792123.8301188984</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8064,18 +7102,15 @@
         <v>791636.5582188984</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8100,18 +7135,15 @@
         <v>189793.5582188984</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8136,18 +7168,15 @@
         <v>-857065.5694811016</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8172,18 +7201,15 @@
         <v>-857065.5694811016</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8208,18 +7234,15 @@
         <v>-857065.5694811016</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8244,18 +7267,15 @@
         <v>-901418.5694811016</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8280,18 +7300,15 @@
         <v>-901418.5694811016</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8318,16 +7335,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8354,16 +7368,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8390,16 +7401,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8424,22 +7432,15 @@
         <v>-206523.6750811016</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K207" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8466,22 +7467,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8506,26 +7498,15 @@
         <v>-102616.7179811016</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="K209" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8552,16 +7533,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8586,24 +7564,15 @@
         <v>-134456.8610811016</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>4.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8628,24 +7597,15 @@
         <v>-134456.8610811016</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>4.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8670,22 +7630,19 @@
         <v>-134456.8610811016</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>4.81</v>
+      </c>
+      <c r="J213" t="n">
+        <v>4.81</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8710,24 +7667,23 @@
         <v>-134456.8610811016</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
+        <v>4.81</v>
       </c>
       <c r="J214" t="n">
         <v>4.81</v>
       </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8752,22 +7708,23 @@
         <v>-113530.4577811016</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+        <v>4.81</v>
+      </c>
+      <c r="J215" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8794,20 +7751,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8834,20 +7784,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8872,22 +7815,15 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8912,22 +7848,15 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8954,20 +7883,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8994,20 +7916,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9032,22 +7947,19 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="J222" t="n">
+        <v>4.82</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9072,22 +7984,23 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="J223" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9112,22 +8025,23 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="J224" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9152,22 +8066,23 @@
         <v>-231358.1517811016</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="J225" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9192,22 +8107,23 @@
         <v>-231358.1517811016</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
+        <v>4.81</v>
+      </c>
+      <c r="J226" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9232,22 +8148,23 @@
         <v>-231358.1517811016</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
+        <v>4.81</v>
+      </c>
+      <c r="J227" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9272,22 +8189,23 @@
         <v>-231358.1517811016</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
+        <v>4.81</v>
+      </c>
+      <c r="J228" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9312,22 +8230,23 @@
         <v>-231358.1517811016</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
+        <v>4.81</v>
+      </c>
+      <c r="J229" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9352,22 +8271,23 @@
         <v>-231358.1517811016</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
+        <v>4.81</v>
+      </c>
+      <c r="J230" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9392,20 +8312,23 @@
         <v>-291358.1517811016</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>4.81</v>
+      </c>
+      <c r="J231" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
       </c>
       <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9430,18 +8353,23 @@
         <v>-1218891.618381102</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+        <v>4.77</v>
+      </c>
+      <c r="J232" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9466,18 +8394,23 @@
         <v>-1222405.186181102</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="J233" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9504,16 +8437,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9540,16 +8476,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9576,16 +8515,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9612,16 +8554,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9648,16 +8593,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9684,16 +8632,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9720,16 +8671,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9754,18 +8708,23 @@
         <v>-1146179.684481102</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="J241" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9790,18 +8749,23 @@
         <v>-1149949.173481102</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="J242" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9826,18 +8790,23 @@
         <v>-1149949.173481102</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J243" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9864,16 +8833,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9900,16 +8872,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9936,16 +8911,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9972,16 +8950,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10008,16 +8989,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10044,16 +9028,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10080,16 +9067,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10116,16 +9106,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10150,18 +9143,23 @@
         <v>-1548362.436881102</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="J252" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10186,22 +9184,23 @@
         <v>-1548362.436881102</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="J253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10226,26 +9225,23 @@
         <v>-1565923.204681102</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="J254" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K254" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10270,26 +9266,23 @@
         <v>-1565923.204681102</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K255" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10314,22 +9307,23 @@
         <v>-1565923.204681102</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10354,26 +9348,23 @@
         <v>-1565923.204681102</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10398,24 +9389,23 @@
         <v>-1557453.631781102</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="J258" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10440,22 +9430,23 @@
         <v>-1557453.631781102</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="J259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10480,26 +9471,21 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+        <v>4.82</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10524,26 +9510,23 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J261" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K261" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L261" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10568,26 +9551,21 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K262" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L262" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10612,26 +9590,23 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J263" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K263" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L263" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10656,26 +9631,23 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K264" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L264" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10700,26 +9672,23 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K265" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L265" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10744,26 +9713,23 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K266" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L266" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10788,26 +9754,23 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K267" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L267" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10832,26 +9795,23 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K268" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L268" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10876,26 +9836,23 @@
         <v>-1146730.415581102</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J269" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K269" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L269" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10920,26 +9877,23 @@
         <v>-1163564.156381102</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="J270" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K270" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L270" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10964,26 +9918,23 @@
         <v>-1264842.156381102</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="J271" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K271" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L271" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11008,26 +9959,23 @@
         <v>-1256046.676281102</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J272" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K272" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L272" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11052,26 +10000,23 @@
         <v>-1256046.676281102</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="J273" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K273" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L273" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11096,24 +10041,23 @@
         <v>-2219415.416881102</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L274" t="inlineStr">
+        <v>4.76</v>
+      </c>
+      <c r="J274" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11140,22 +10084,19 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11180,24 +10121,23 @@
         <v>-2212491.704181102</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L276" t="inlineStr">
+        <v>4.76</v>
+      </c>
+      <c r="J276" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11222,24 +10162,23 @@
         <v>-2222491.704181102</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L277" t="inlineStr">
+        <v>4.76</v>
+      </c>
+      <c r="J277" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11264,24 +10203,23 @@
         <v>-2222471.704181102</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L278" t="inlineStr">
+        <v>4.75</v>
+      </c>
+      <c r="J278" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -11306,24 +10244,23 @@
         <v>-2343141.890481102</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="n">
-        <v>0</v>
-      </c>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L279" t="inlineStr">
+        <v>4.78</v>
+      </c>
+      <c r="J279" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -11348,24 +10285,23 @@
         <v>-2343131.890481102</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L280" t="inlineStr">
+        <v>4.73</v>
+      </c>
+      <c r="J280" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -11390,24 +10326,23 @@
         <v>-2343121.890481102</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L281" t="inlineStr">
+        <v>4.74</v>
+      </c>
+      <c r="J281" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11432,26 +10367,23 @@
         <v>-2328678.498381102</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I282" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J282" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K282" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L282" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11476,24 +10408,23 @@
         <v>-2476086.718881102</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="n">
-        <v>0</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L283" t="inlineStr">
+        <v>4.76</v>
+      </c>
+      <c r="J283" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11518,26 +10449,23 @@
         <v>-2476076.718881102</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I284" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="J284" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K284" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L284" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11562,26 +10490,23 @@
         <v>-2417633.718981102</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I285" t="n">
-        <v>0</v>
+        <v>4.76</v>
       </c>
       <c r="J285" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K285" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L285" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11606,26 +10531,23 @@
         <v>-2417633.718981102</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="J286" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K286" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L286" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11650,26 +10572,23 @@
         <v>-2417633.718981102</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="J287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K287" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L287" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11694,26 +10613,23 @@
         <v>-2417613.718981102</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>0</v>
+        <v>4.77</v>
       </c>
       <c r="J288" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K288" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L288" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11738,26 +10654,23 @@
         <v>-2417603.718981102</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="n">
-        <v>0</v>
+        <v>4.79</v>
       </c>
       <c r="J289" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="K289" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L289" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11782,26 +10695,23 @@
         <v>-2364590.675581102</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I290" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J290" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K290" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L290" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11826,26 +10736,23 @@
         <v>-2373325.561081102</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I291" t="n">
-        <v>0</v>
+        <v>4.83</v>
       </c>
       <c r="J291" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="K291" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L291" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11870,28 +10777,25 @@
         <v>-2370723.520681102</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I292" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="J292" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K292" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="L292" t="inlineStr">
+        <v>4.82</v>
+      </c>
+      <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1153698.771181102</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-443966.0679811019</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-443966.0679811019</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>78164.50831889809</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>402392.1974188981</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>365392.1974188981</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>88117.8172188981</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-200118.2326811019</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-300118.2326811019</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-326970.4557811019</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-326970.4557811019</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>342812.4498188982</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>342812.4498188982</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>431113.0270188982</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>431113.0270188982</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>295877.4696188982</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>295877.4696188982</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>73426.45921889818</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>151426.4592188982</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>151426.4592188982</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>88384.64021889817</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>61774.65861889817</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-89191.79818110184</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>138498.8956188982</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>138498.8956188982</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>127788.8956188982</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-1750670.298381102</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-2251348.200981102</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2695,10 +2695,14 @@
         <v>-588314.7085811016</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J70" t="n">
+        <v>4.76</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2731,8 +2735,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2774,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3619,17 +3635,11 @@
         <v>169668.9835188984</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>4.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3658,17 +3668,11 @@
         <v>169668.9835188984</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>4.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3697,17 +3701,11 @@
         <v>187468.9835188984</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>4.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3740,11 +3738,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3773,17 +3767,11 @@
         <v>225703.5660188984</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>4.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3816,11 +3804,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +3837,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3890,11 +3870,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3923,15 +3899,11 @@
         <v>1431651.094218899</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3964,11 +3936,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3997,15 +3965,11 @@
         <v>1431651.094218899</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4034,15 +3998,11 @@
         <v>1431651.094218899</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4075,11 +4035,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4112,11 +4068,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4149,11 +4101,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4186,11 +4134,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4223,11 +4167,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4260,11 +4200,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4297,11 +4233,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4334,11 +4266,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4371,11 +4299,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4408,11 +4332,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4445,11 +4365,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4482,11 +4398,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4519,11 +4431,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4556,11 +4464,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4593,11 +4497,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4630,11 +4530,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4667,11 +4563,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4704,11 +4596,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4629,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4778,11 +4662,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4815,11 +4695,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4848,16 +4724,14 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
       <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
@@ -4883,7 +4757,7 @@
         <v>1051275.606618898</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -6005,14 +5879,10 @@
         <v>791665.1778188983</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J166" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
@@ -6042,19 +5912,11 @@
         <v>791665.1778188983</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
-      </c>
-      <c r="I167" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J167" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6083,19 +5945,11 @@
         <v>791665.1778188983</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
-      </c>
-      <c r="I168" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J168" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6124,14 +5978,10 @@
         <v>766325.0320188983</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J169" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
@@ -6161,19 +6011,11 @@
         <v>766325.0320188983</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
-      </c>
-      <c r="I170" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J170" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6205,14 +6047,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6241,14 +6077,10 @@
         <v>933017.5896188982</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
-      </c>
-      <c r="I172" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J172" t="n">
-        <v>4.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
@@ -6278,19 +6110,11 @@
         <v>936274.6013188983</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J173" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6319,19 +6143,11 @@
         <v>952942.5373188982</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J174" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6360,14 +6176,10 @@
         <v>994146.6137188983</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J175" t="n">
-        <v>4.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
@@ -6400,14 +6212,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +6245,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6673,7 +6473,7 @@
         <v>934608.5721188983</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6706,7 +6506,7 @@
         <v>1022387.381218898</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6805,7 +6605,7 @@
         <v>1075280.793818898</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6838,7 +6638,7 @@
         <v>1180930.975118898</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6871,7 +6671,7 @@
         <v>1148268.808718898</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6904,7 +6704,7 @@
         <v>838561.6055188983</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6937,7 +6737,7 @@
         <v>861949.5011188984</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6970,7 +6770,7 @@
         <v>791623.8297188984</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7003,7 +6803,7 @@
         <v>791623.8301188984</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7036,7 +6836,7 @@
         <v>791623.8301188984</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7069,7 +6869,7 @@
         <v>792123.8301188984</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7102,7 +6902,7 @@
         <v>791636.5582188984</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7135,7 +6935,7 @@
         <v>189793.5582188984</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7168,7 +6968,7 @@
         <v>-857065.5694811016</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7201,7 +7001,7 @@
         <v>-857065.5694811016</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7234,7 +7034,7 @@
         <v>-857065.5694811016</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7267,7 +7067,7 @@
         <v>-901418.5694811016</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7300,7 +7100,7 @@
         <v>-901418.5694811016</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7630,14 +7430,10 @@
         <v>-134456.8610811016</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J213" t="n">
-        <v>4.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
@@ -7667,19 +7463,11 @@
         <v>-134456.8610811016</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J214" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7708,19 +7496,11 @@
         <v>-113530.4577811016</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J215" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7815,7 +7595,7 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7848,7 +7628,7 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7947,14 +7727,10 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="J222" t="n">
-        <v>4.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
@@ -7984,1504 +7760,1284 @@
         <v>-123085.3732811016</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
-      </c>
-      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
         <v>4.82</v>
       </c>
-      <c r="J223" t="n">
+      <c r="C224" t="n">
         <v>4.82</v>
       </c>
-      <c r="K223" t="inlineStr">
+      <c r="D224" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E224" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="F224" t="n">
+        <v>22021.4096</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-123085.3732811016</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D225" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E225" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F225" t="n">
+        <v>108272.7785</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-231358.1517811016</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C226" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F226" t="n">
+        <v>249000</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-231358.1517811016</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C227" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D227" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E227" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F227" t="n">
+        <v>28929.2728</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-231358.1517811016</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C228" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D228" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E228" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F228" t="n">
+        <v>323342.5662</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-231358.1517811016</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C229" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D229" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E229" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F229" t="n">
+        <v>234679.6851</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-231358.1517811016</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="C230" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E230" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="F230" t="n">
+        <v>624799.4997</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-231358.1517811016</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C231" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D231" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E231" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F231" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-291358.1517811016</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C232" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D232" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F232" t="n">
+        <v>927533.4666</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1218891.618381102</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C233" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D233" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E233" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3513.5678</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1222405.186181102</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C234" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E234" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F234" t="n">
+        <v>354</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1222405.186181102</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C235" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D235" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F235" t="n">
+        <v>453623.214</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1222405.186181102</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E236" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F236" t="n">
+        <v>52586.0561</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1222405.186181102</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C237" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D237" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E237" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F237" t="n">
+        <v>13581.8667</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1222405.186181102</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E238" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F238" t="n">
+        <v>9739.9581</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1212665.228081102</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C239" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D239" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E239" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F239" t="n">
+        <v>24561.79</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1237227.018081102</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C240" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D240" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E240" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F240" t="n">
+        <v>91047.3336</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1146179.684481102</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F241" t="n">
+        <v>25643.2766</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1146179.684481102</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C242" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D242" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E242" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F242" t="n">
+        <v>3769.489</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1149949.173481102</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F243" t="n">
+        <v>191.8946</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1149949.173481102</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="F244" t="n">
+        <v>100</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1149849.173481102</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F245" t="n">
+        <v>201000</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-948849.1734811019</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-948849.1734811019</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F247" t="n">
+        <v>519546.4213</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-1468395.594781102</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F248" t="n">
+        <v>101000</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-1367395.594781102</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F249" t="n">
+        <v>180966.8421</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-1548362.436881102</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F250" t="n">
+        <v>17637.5347</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-1548362.436881102</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F251" t="n">
+        <v>6859</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-1548362.436881102</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F252" t="n">
+        <v>150</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-1548362.436881102</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C253" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D253" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F253" t="n">
+        <v>41209.0067</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-1548362.436881102</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J253" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C254" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E254" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F254" t="n">
+        <v>17560.7678</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-1565923.204681102</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J254" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="D224" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="E224" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="F224" t="n">
-        <v>22021.4096</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="J224" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K224" t="inlineStr">
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F255" t="n">
+        <v>28157.9021</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1565923.204681102</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J255" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="C225" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="D225" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="E225" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F225" t="n">
-        <v>108272.7785</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H225" t="n">
-        <v>2</v>
-      </c>
-      <c r="I225" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="J225" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K225" t="inlineStr">
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F256" t="n">
+        <v>27474</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1565923.204681102</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F257" t="n">
+        <v>53251.3354</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1565923.204681102</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F258" t="n">
+        <v>8469.572899999999</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1557453.631781102</v>
+      </c>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J258" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F259" t="n">
+        <v>64881.6968</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1557453.631781102</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F260" t="n">
+        <v>147382</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J260" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C226" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="D226" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E226" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F226" t="n">
-        <v>249000</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J226" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C227" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="D227" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E227" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F227" t="n">
-        <v>28929.2728</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J227" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C228" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="D228" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E228" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F228" t="n">
-        <v>323342.5662</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J228" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C229" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="D229" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E229" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F229" t="n">
-        <v>234679.6851</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J229" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="C230" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="D230" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="E230" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="F230" t="n">
-        <v>624799.4997</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J230" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C231" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D231" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E231" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="F231" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-291358.1517811016</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="J231" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C232" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D232" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E232" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F232" t="n">
-        <v>927533.4666</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1218891.618381102</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J232" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C233" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D233" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E233" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3513.5678</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J233" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C234" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D234" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E234" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F234" t="n">
-        <v>354</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C235" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D235" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E235" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F235" t="n">
-        <v>453623.214</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C236" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D236" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E236" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F236" t="n">
-        <v>52586.0561</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C237" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D237" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E237" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F237" t="n">
-        <v>13581.8667</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C238" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D238" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E238" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F238" t="n">
-        <v>9739.9581</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1212665.228081102</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C239" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D239" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E239" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F239" t="n">
-        <v>24561.79</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1237227.018081102</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C240" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D240" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E240" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F240" t="n">
-        <v>91047.3336</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1146179.684481102</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C241" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D241" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E241" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F241" t="n">
-        <v>25643.2766</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1146179.684481102</v>
-      </c>
-      <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J241" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C242" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D242" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E242" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F242" t="n">
-        <v>3769.489</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1149949.173481102</v>
-      </c>
-      <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J242" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C243" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D243" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E243" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F243" t="n">
-        <v>191.8946</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1149949.173481102</v>
-      </c>
-      <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J243" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="C244" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D244" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="E244" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="F244" t="n">
-        <v>100</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1149849.173481102</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C245" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D245" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E245" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F245" t="n">
-        <v>201000</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-948849.1734811019</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C246" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D246" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E246" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F246" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G246" t="n">
-        <v>-948849.1734811019</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C247" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D247" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E247" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F247" t="n">
-        <v>519546.4213</v>
-      </c>
-      <c r="G247" t="n">
-        <v>-1468395.594781102</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C248" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D248" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E248" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F248" t="n">
-        <v>101000</v>
-      </c>
-      <c r="G248" t="n">
-        <v>-1367395.594781102</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C249" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D249" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E249" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F249" t="n">
-        <v>180966.8421</v>
-      </c>
-      <c r="G249" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C250" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D250" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E250" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F250" t="n">
-        <v>17637.5347</v>
-      </c>
-      <c r="G250" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C251" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D251" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E251" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F251" t="n">
-        <v>6859</v>
-      </c>
-      <c r="G251" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C252" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D252" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E252" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F252" t="n">
-        <v>150</v>
-      </c>
-      <c r="G252" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J252" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F253" t="n">
-        <v>41209.0067</v>
-      </c>
-      <c r="G253" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J253" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C254" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D254" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E254" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F254" t="n">
-        <v>17560.7678</v>
-      </c>
-      <c r="G254" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J254" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F255" t="n">
-        <v>28157.9021</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J255" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F256" t="n">
-        <v>27474</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J256" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F257" t="n">
-        <v>53251.3354</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J257" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F258" t="n">
-        <v>8469.572899999999</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1557453.631781102</v>
-      </c>
-      <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J258" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F259" t="n">
-        <v>64881.6968</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1557453.631781102</v>
-      </c>
-      <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J259" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C260" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E260" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F260" t="n">
-        <v>147382</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9510,13 +9066,13 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>4.75</v>
       </c>
       <c r="J261" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9551,11 +9107,13 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J262" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9590,13 +9148,13 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>4.75</v>
       </c>
       <c r="J263" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9631,13 +9189,13 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>4.75</v>
       </c>
       <c r="J264" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9672,13 +9230,13 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>4.75</v>
       </c>
       <c r="J265" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9713,13 +9271,13 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>4.75</v>
       </c>
       <c r="J266" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9754,13 +9312,11 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9795,13 +9351,11 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9836,13 +9390,11 @@
         <v>-1146730.415581102</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9877,13 +9429,11 @@
         <v>-1163564.156381102</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>4.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9918,13 +9468,11 @@
         <v>-1264842.156381102</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9959,13 +9507,11 @@
         <v>-1256046.676281102</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10000,13 +9546,11 @@
         <v>-1256046.676281102</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10041,13 +9585,11 @@
         <v>-2219415.416881102</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10086,7 +9628,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10121,13 +9663,11 @@
         <v>-2212491.704181102</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10162,13 +9702,11 @@
         <v>-2222491.704181102</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10203,13 +9741,11 @@
         <v>-2222471.704181102</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10244,13 +9780,13 @@
         <v>-2343141.890481102</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>4.78</v>
       </c>
       <c r="J279" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10285,13 +9821,13 @@
         <v>-2343131.890481102</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>4.73</v>
       </c>
       <c r="J280" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10326,13 +9862,13 @@
         <v>-2343121.890481102</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>4.74</v>
       </c>
       <c r="J281" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10367,13 +9903,13 @@
         <v>-2328678.498381102</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>4.75</v>
       </c>
       <c r="J282" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10408,13 +9944,13 @@
         <v>-2476086.718881102</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>4.76</v>
       </c>
       <c r="J283" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10449,13 +9985,13 @@
         <v>-2476076.718881102</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>4.75</v>
       </c>
       <c r="J284" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10490,13 +10026,13 @@
         <v>-2417633.718981102</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>4.76</v>
       </c>
       <c r="J285" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10531,13 +10067,13 @@
         <v>-2417633.718981102</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>4.77</v>
       </c>
       <c r="J286" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10572,13 +10108,13 @@
         <v>-2417633.718981102</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>4.77</v>
       </c>
       <c r="J287" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10613,13 +10149,13 @@
         <v>-2417613.718981102</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>4.77</v>
       </c>
       <c r="J288" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10654,13 +10190,13 @@
         <v>-2417603.718981102</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>4.79</v>
       </c>
       <c r="J289" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10695,13 +10231,13 @@
         <v>-2364590.675581102</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>4.8</v>
       </c>
       <c r="J290" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10736,13 +10272,13 @@
         <v>-2373325.561081102</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>4.83</v>
       </c>
       <c r="J291" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10777,13 +10313,13 @@
         <v>-2370723.520681102</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>4.8</v>
       </c>
       <c r="J292" t="n">
-        <v>4.82</v>
+        <v>4.76</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10796,6 +10332,6 @@
       <c r="M292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1153698.771181102</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-443966.0679811019</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-443966.0679811019</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>78164.50831889809</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>402392.1974188981</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>365392.1974188981</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>88117.8172188981</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-200118.2326811019</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-300118.2326811019</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-326970.4557811019</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-326970.4557811019</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>342812.4498188982</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>342812.4498188982</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>431113.0270188982</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>431113.0270188982</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>295877.4696188982</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>295877.4696188982</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>73426.45921889818</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>151426.4592188982</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>151426.4592188982</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>88384.64021889817</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>61774.65861889817</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2563,10 +2563,14 @@
         <v>-802261.8881811016</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="J66" t="n">
+        <v>4.67</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +2600,19 @@
         <v>-617868.5292811017</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2641,19 @@
         <v>-450868.5292811017</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="J68" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2695,14 +2715,10 @@
         <v>-588314.7085811016</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2735,14 +2751,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2774,14 +2784,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>1370279.192418899</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4130,7 +4134,7 @@
         <v>1204931.226218899</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4163,7 +4167,7 @@
         <v>1174568.046318899</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4196,7 +4200,7 @@
         <v>1056404.502518899</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4295,7 +4299,7 @@
         <v>1066024.502518899</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4328,7 +4332,7 @@
         <v>1066034.502518899</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4361,7 +4365,7 @@
         <v>1060612.872918898</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4691,7 +4695,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4724,7 +4728,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4757,7 +4761,7 @@
         <v>1051275.606618898</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -8750,14 +8754,10 @@
         <v>-1548362.436881102</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J253" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
@@ -8787,620 +8787,554 @@
         <v>-1565923.204681102</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J254" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K254" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E255" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F255" t="n">
+        <v>28157.9021</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-1565923.204681102</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E256" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F256" t="n">
+        <v>27474</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-1565923.204681102</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E257" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F257" t="n">
+        <v>53251.3354</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-1565923.204681102</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E258" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F258" t="n">
+        <v>8469.572899999999</v>
+      </c>
+      <c r="G258" t="n">
+        <v>-1557453.631781102</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E259" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F259" t="n">
+        <v>64881.6968</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-1557453.631781102</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C260" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D260" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F260" t="n">
+        <v>147382</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C261" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D261" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E261" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F261" t="n">
+        <v>72292.428</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C262" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D262" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E262" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F262" t="n">
+        <v>75902.6972</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F263" t="n">
+        <v>31668</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H263" t="n">
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J263" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F264" t="n">
+        <v>63211</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H264" t="n">
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J264" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F255" t="n">
-        <v>28157.9021</v>
-      </c>
-      <c r="G255" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J255" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K255" t="inlineStr">
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F265" t="n">
+        <v>57306</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F256" t="n">
-        <v>27474</v>
-      </c>
-      <c r="G256" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J256" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F257" t="n">
-        <v>53251.3354</v>
-      </c>
-      <c r="G257" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J257" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K257" t="inlineStr">
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F266" t="n">
+        <v>593938.2497</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4857.8041</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E258" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F258" t="n">
-        <v>8469.572899999999</v>
-      </c>
-      <c r="G258" t="n">
-        <v>-1557453.631781102</v>
-      </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J258" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K258" t="inlineStr">
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2125.2892</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F259" t="n">
-        <v>64881.6968</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-1557453.631781102</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J259" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C260" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E260" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F260" t="n">
-        <v>147382</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J260" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K260" t="inlineStr">
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C269" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D269" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F269" t="n">
+        <v>558105.2162</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1146730.415581102</v>
+      </c>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C261" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D261" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E261" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F261" t="n">
-        <v>72292.428</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J261" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C262" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D262" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E262" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F262" t="n">
-        <v>75902.6972</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J262" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C263" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D263" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E263" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F263" t="n">
-        <v>31668</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J263" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F264" t="n">
-        <v>63211</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J264" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F265" t="n">
-        <v>57306</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J265" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F266" t="n">
-        <v>593938.2497</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J266" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F267" t="n">
-        <v>4857.8041</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2125.2892</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C269" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D269" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E269" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F269" t="n">
-        <v>558105.2162</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1146730.415581102</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9433,7 +9367,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9472,7 +9406,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9507,11 +9441,13 @@
         <v>-1256046.676281102</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>4.75</v>
+      </c>
       <c r="J272" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9550,7 +9486,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9589,7 +9525,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9628,7 +9564,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -9667,7 +9603,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -9706,7 +9642,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -9745,7 +9681,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -9780,13 +9716,11 @@
         <v>-2343141.890481102</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>4.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -9821,13 +9755,11 @@
         <v>-2343131.890481102</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>4.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -9868,7 +9800,7 @@
         <v>4.74</v>
       </c>
       <c r="J281" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -9903,13 +9835,11 @@
         <v>-2328678.498381102</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -9944,13 +9874,11 @@
         <v>-2476086.718881102</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>4.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -9991,7 +9919,7 @@
         <v>4.75</v>
       </c>
       <c r="J284" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10032,7 +9960,7 @@
         <v>4.76</v>
       </c>
       <c r="J285" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10073,7 +10001,7 @@
         <v>4.77</v>
       </c>
       <c r="J286" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10114,7 +10042,7 @@
         <v>4.77</v>
       </c>
       <c r="J287" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10155,7 +10083,7 @@
         <v>4.77</v>
       </c>
       <c r="J288" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10196,7 +10124,7 @@
         <v>4.79</v>
       </c>
       <c r="J289" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10231,13 +10159,11 @@
         <v>-2364590.675581102</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>4.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10272,13 +10198,11 @@
         <v>-2373325.561081102</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>4.83</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10313,13 +10237,11 @@
         <v>-2370723.520681102</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>4.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>4.76</v>
+        <v>4.75</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10332,6 +10254,6 @@
       <c r="M292" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -451,7 +451,7 @@
         <v>-1153698.771181102</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>78164.50831889809</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>402392.1974188981</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>365392.1974188981</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>88117.8172188981</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-200118.2326811019</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-300118.2326811019</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -2563,14 +2563,10 @@
         <v>-802261.8881811016</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2600,19 +2596,11 @@
         <v>-617868.5292811017</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2641,19 +2629,11 @@
         <v>-450868.5292811017</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -4101,7 +4081,7 @@
         <v>1370279.192418899</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4134,7 +4114,7 @@
         <v>1204931.226218899</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4167,7 +4147,7 @@
         <v>1174568.046318899</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4200,7 +4180,7 @@
         <v>1056404.502518899</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4299,7 +4279,7 @@
         <v>1066024.502518899</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4332,7 +4312,7 @@
         <v>1066034.502518899</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4365,7 +4345,7 @@
         <v>1060612.872918898</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4695,7 +4675,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4728,7 +4708,7 @@
         <v>1049547.606618898</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4761,7 +4741,7 @@
         <v>1051275.606618898</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -9084,14 +9064,10 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J263" t="n">
-        <v>4.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
@@ -9121,1055 +9097,933 @@
         <v>-1704835.631781102</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J264" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K264" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F265" t="n">
+        <v>57306</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E266" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F266" t="n">
+        <v>593938.2497</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E267" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F267" t="n">
+        <v>4857.8041</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E268" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2125.2892</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-1704835.631781102</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C269" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D269" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E269" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F269" t="n">
+        <v>558105.2162</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-1146730.415581102</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C270" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D270" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E270" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F270" t="n">
+        <v>16833.7408</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-1163564.156381102</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C271" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D271" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E271" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F271" t="n">
+        <v>101278</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-1264842.156381102</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C272" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D272" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E272" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F272" t="n">
+        <v>8795.480100000001</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-1256046.676281102</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C273" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D273" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E273" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F273" t="n">
+        <v>8791.584699999999</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-1256046.676281102</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="C274" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D274" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E274" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F274" t="n">
+        <v>963368.7406</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-2219415.416881102</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D275" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E275" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F275" t="n">
+        <v>6923.7127</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-2212491.704181102</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C276" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D276" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E276" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F276" t="n">
+        <v>7509.6794</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-2212491.704181102</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C277" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D277" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E277" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F277" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-2222491.704181102</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C278" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D278" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="E278" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F278" t="n">
+        <v>20</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-2222471.704181102</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C279" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="D279" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="F279" t="n">
+        <v>120670.1863</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-2343141.890481102</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="C280" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="D280" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="E280" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F280" t="n">
+        <v>10</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-2343131.890481102</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C281" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D281" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E281" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F281" t="n">
+        <v>10</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-2343121.890481102</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J281" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C282" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D282" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E282" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F282" t="n">
+        <v>14443.3921</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-2328678.498381102</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K282" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F265" t="n">
-        <v>57306</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J265" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K265" t="inlineStr">
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C283" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D283" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E283" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F283" t="n">
+        <v>147408.2205</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-2476086.718881102</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="K283" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F266" t="n">
-        <v>593938.2497</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J266" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F267" t="n">
-        <v>4857.8041</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J267" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K267" t="inlineStr">
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C284" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="D284" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="E284" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F284" t="n">
+        <v>10</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-2476076.718881102</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J284" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="C285" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D285" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E285" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="F285" t="n">
+        <v>58442.9999</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-2417633.718981102</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J285" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K285" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F268" t="n">
-        <v>2125.2892</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J268" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K268" t="inlineStr">
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="C286" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="D286" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E286" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F286" t="n">
+        <v>6543.9999</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-2417633.718981102</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J286" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C269" t="n">
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
         <v>4.77</v>
       </c>
-      <c r="D269" t="n">
+      <c r="C287" t="n">
         <v>4.77</v>
       </c>
-      <c r="E269" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F269" t="n">
-        <v>558105.2162</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-1146730.415581102</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J269" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K269" t="inlineStr">
+      <c r="D287" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E287" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F287" t="n">
+        <v>27815.8866</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-2417633.718981102</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J287" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="C288" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="D288" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="E288" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F288" t="n">
+        <v>20</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-2417613.718981102</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="J288" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C289" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D289" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E289" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F289" t="n">
+        <v>10</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-2417603.718981102</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="J289" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C290" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="D290" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E290" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="F290" t="n">
+        <v>53013.0434</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-2364590.675581102</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J290" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="K290" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C270" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D270" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E270" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F270" t="n">
-        <v>16833.7408</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-1163564.156381102</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C271" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D271" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E271" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F271" t="n">
-        <v>101278</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-1264842.156381102</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C272" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D272" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E272" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F272" t="n">
-        <v>8795.480100000001</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-1256046.676281102</v>
-      </c>
-      <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J272" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C273" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D273" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E273" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F273" t="n">
-        <v>8791.584699999999</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-1256046.676281102</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="C274" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D274" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E274" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F274" t="n">
-        <v>963368.7406</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-2219415.416881102</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C275" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D275" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E275" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F275" t="n">
-        <v>6923.7127</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-2212491.704181102</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C276" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D276" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E276" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F276" t="n">
-        <v>7509.6794</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-2212491.704181102</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C277" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D277" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E277" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F277" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-2222491.704181102</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C278" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D278" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="E278" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F278" t="n">
-        <v>20</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-2222471.704181102</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C279" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="D279" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E279" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="F279" t="n">
-        <v>120670.1863</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-2343141.890481102</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="C280" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="D280" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="E280" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="F280" t="n">
-        <v>10</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-2343131.890481102</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="C281" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D281" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E281" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F281" t="n">
-        <v>10</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-2343121.890481102</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J281" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C282" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D282" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E282" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F282" t="n">
-        <v>14443.3921</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-2328678.498381102</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C283" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="D283" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E283" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="F283" t="n">
-        <v>147408.2205</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-2476086.718881102</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C284" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="D284" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="E284" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F284" t="n">
-        <v>10</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-2476076.718881102</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J284" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="C285" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D285" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E285" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="F285" t="n">
-        <v>58442.9999</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-2417633.718981102</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J285" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="C286" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D286" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E286" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="F286" t="n">
-        <v>6543.9999</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-2417633.718981102</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J286" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="C287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="D287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="E287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="F287" t="n">
-        <v>27815.8866</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-2417633.718981102</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J287" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="C288" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="D288" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="E288" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="F288" t="n">
-        <v>20</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-2417613.718981102</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J288" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C289" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D289" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="E289" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F289" t="n">
-        <v>10</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-2417603.718981102</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="J289" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="C290" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="D290" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="E290" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F290" t="n">
-        <v>53013.0434</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-2364590.675581102</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10198,11 +10052,13 @@
         <v>-2373325.561081102</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>4.83</v>
+      </c>
       <c r="J291" t="n">
-        <v>4.75</v>
+        <v>4.77</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10237,11 +10093,13 @@
         <v>-2370723.520681102</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>4.8</v>
+      </c>
       <c r="J292" t="n">
-        <v>4.75</v>
+        <v>4.77</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>

--- a/BackTest/2019-10-31 BackTest VET.xlsx
+++ b/BackTest/2019-10-31 BackTest VET.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M292"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>28000</v>
       </c>
       <c r="G2" t="n">
-        <v>-1153698.771181102</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>709732.7032</v>
       </c>
       <c r="G3" t="n">
-        <v>-443966.0679811019</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>115620.981</v>
       </c>
       <c r="G4" t="n">
-        <v>-443966.0679811019</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>522130.5763</v>
       </c>
       <c r="G5" t="n">
-        <v>78164.50831889809</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>324227.6891</v>
       </c>
       <c r="G6" t="n">
-        <v>402392.1974188981</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>37000</v>
       </c>
       <c r="G7" t="n">
-        <v>365392.1974188981</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>277274.3802</v>
       </c>
       <c r="G8" t="n">
-        <v>88117.8172188981</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>288236.0499</v>
       </c>
       <c r="G9" t="n">
-        <v>-200118.2326811019</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>100000</v>
       </c>
       <c r="G10" t="n">
-        <v>-300118.2326811019</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>26852.2231</v>
       </c>
       <c r="G11" t="n">
-        <v>-326970.4557811019</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>9455.8449</v>
       </c>
       <c r="G12" t="n">
-        <v>-326970.4557811019</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>669782.9056000001</v>
       </c>
       <c r="G13" t="n">
-        <v>342812.4498188982</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>40485.8298</v>
       </c>
       <c r="G14" t="n">
-        <v>342812.4498188982</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>88300.5772</v>
       </c>
       <c r="G15" t="n">
-        <v>431113.0270188982</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>12242.0664</v>
       </c>
       <c r="G16" t="n">
-        <v>431113.0270188982</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>135235.5574</v>
       </c>
       <c r="G17" t="n">
-        <v>295877.4696188982</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>377933.4684</v>
       </c>
       <c r="G18" t="n">
-        <v>295877.4696188982</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>222451.0104</v>
       </c>
       <c r="G19" t="n">
-        <v>73426.45921889818</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>78000</v>
       </c>
       <c r="G20" t="n">
-        <v>151426.4592188982</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>209861.7252</v>
       </c>
       <c r="G21" t="n">
-        <v>151426.4592188982</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>63041.819</v>
       </c>
       <c r="G22" t="n">
-        <v>88384.64021889817</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>26609.9816</v>
       </c>
       <c r="G23" t="n">
-        <v>61774.65861889817</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>173639.9002</v>
       </c>
       <c r="G24" t="n">
-        <v>61774.65861889817</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>150966.4568</v>
       </c>
       <c r="G25" t="n">
-        <v>-89191.79818110184</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>227690.6938</v>
       </c>
       <c r="G26" t="n">
-        <v>138498.8956188982</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>303143.3946</v>
       </c>
       <c r="G27" t="n">
-        <v>138498.8956188982</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10710</v>
       </c>
       <c r="G28" t="n">
-        <v>127788.8956188982</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>314425.2413</v>
       </c>
       <c r="G29" t="n">
-        <v>127788.8956188982</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>1878459.194</v>
       </c>
       <c r="G30" t="n">
-        <v>-1750670.298381102</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>500677.9026</v>
       </c>
       <c r="G31" t="n">
-        <v>-2251348.200981102</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>252664</v>
       </c>
       <c r="G32" t="n">
-        <v>-2504012.200981102</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>347469.47</v>
       </c>
       <c r="G33" t="n">
-        <v>-2156542.730981102</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>17224.83</v>
       </c>
       <c r="G34" t="n">
-        <v>-2156542.730981102</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>111153.2046</v>
       </c>
       <c r="G35" t="n">
-        <v>-2156542.730981102</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>43744.7252</v>
       </c>
       <c r="G36" t="n">
-        <v>-2156542.730981102</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>717831.3254</v>
       </c>
       <c r="G37" t="n">
-        <v>-2874374.056381102</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>353408.106</v>
       </c>
       <c r="G38" t="n">
-        <v>-2874374.056381102</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>49577.5971</v>
       </c>
       <c r="G39" t="n">
-        <v>-2923951.653481102</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>85838.16250000001</v>
       </c>
       <c r="G40" t="n">
-        <v>-3009789.815981102</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>1786441.147</v>
       </c>
       <c r="G41" t="n">
-        <v>-1223348.668981102</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>257839.9502</v>
       </c>
       <c r="G42" t="n">
-        <v>-1481188.619181102</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>41036.2468</v>
       </c>
       <c r="G43" t="n">
-        <v>-1440152.372381102</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>260548.9212</v>
       </c>
       <c r="G44" t="n">
-        <v>-1440152.372381102</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>54843.5109</v>
       </c>
       <c r="G45" t="n">
-        <v>-1440152.372381102</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>640.7406999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>-1440152.372381102</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>340821.5124</v>
       </c>
       <c r="G47" t="n">
-        <v>-1099330.859981102</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>304331.0041</v>
       </c>
       <c r="G48" t="n">
-        <v>-1099330.859981102</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>430285.6029</v>
       </c>
       <c r="G49" t="n">
-        <v>-669045.2570811019</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>129085.6963</v>
       </c>
       <c r="G50" t="n">
-        <v>-669045.2570811019</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2458.724</v>
       </c>
       <c r="G51" t="n">
-        <v>-669045.2570811019</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>50757</v>
       </c>
       <c r="G52" t="n">
-        <v>-719802.2570811019</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>374458.724</v>
       </c>
       <c r="G53" t="n">
-        <v>-719802.2570811019</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>181135.5661</v>
       </c>
       <c r="G54" t="n">
-        <v>-538666.6909811019</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>224707.4914</v>
       </c>
       <c r="G55" t="n">
-        <v>-538666.6909811019</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>58685.7686</v>
       </c>
       <c r="G56" t="n">
-        <v>-597352.4595811019</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>8685.768599999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-606038.2281811018</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>3200</v>
       </c>
       <c r="G58" t="n">
-        <v>-602838.2281811018</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>88304.6436</v>
       </c>
       <c r="G59" t="n">
-        <v>-691142.8717811018</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>67615.42819999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-758758.2999811018</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>39055.4472</v>
       </c>
       <c r="G61" t="n">
-        <v>-719702.8527811017</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>100000</v>
       </c>
       <c r="G62" t="n">
-        <v>-719702.8527811017</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>501000</v>
       </c>
       <c r="G63" t="n">
-        <v>-719702.8527811017</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>22931.4887</v>
       </c>
       <c r="G64" t="n">
-        <v>-742634.3414811017</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>59627.5467</v>
       </c>
       <c r="G65" t="n">
-        <v>-802261.8881811016</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,19 @@
         <v>4315.307</v>
       </c>
       <c r="G66" t="n">
-        <v>-802261.8881811016</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>4.67</v>
+      </c>
+      <c r="I66" t="n">
+        <v>4.67</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2397,23 @@
         <v>184393.3589</v>
       </c>
       <c r="G67" t="n">
-        <v>-617868.5292811017</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>4.67</v>
+      </c>
+      <c r="I67" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2435,23 @@
         <v>167000</v>
       </c>
       <c r="G68" t="n">
-        <v>-450868.5292811017</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>4.72</v>
+      </c>
+      <c r="I68" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2473,19 @@
         <v>9673.217500000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-450868.5292811017</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4.76</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2507,23 @@
         <v>137446.1793</v>
       </c>
       <c r="G70" t="n">
-        <v>-588314.7085811016</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>4.76</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2545,23 @@
         <v>14931.7215</v>
       </c>
       <c r="G71" t="n">
-        <v>-573382.9870811016</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>4.75</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2583,15 @@
         <v>16278.3008</v>
       </c>
       <c r="G72" t="n">
-        <v>-589661.2878811016</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2613,19 @@
         <v>7943.4671</v>
       </c>
       <c r="G73" t="n">
-        <v>-589661.2878811016</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>4.74</v>
+      </c>
+      <c r="I73" t="n">
+        <v>4.74</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2647,21 @@
         <v>3614.4858</v>
       </c>
       <c r="G74" t="n">
-        <v>-586046.8020811016</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2683,21 @@
         <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>-586036.8020811016</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2719,15 @@
         <v>20112.6835</v>
       </c>
       <c r="G76" t="n">
-        <v>-606149.4855811016</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2749,15 @@
         <v>45461.8947</v>
       </c>
       <c r="G77" t="n">
-        <v>-651611.3802811016</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2779,15 @@
         <v>20112.6835</v>
       </c>
       <c r="G78" t="n">
-        <v>-631498.6967811015</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2809,15 @@
         <v>17702.4425</v>
       </c>
       <c r="G79" t="n">
-        <v>-631498.6967811015</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2839,15 @@
         <v>8541.6402</v>
       </c>
       <c r="G80" t="n">
-        <v>-640040.3369811015</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2869,15 @@
         <v>8541.6402</v>
       </c>
       <c r="G81" t="n">
-        <v>-640040.3369811015</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2899,15 @@
         <v>44000</v>
       </c>
       <c r="G82" t="n">
-        <v>-596040.3369811015</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2929,15 @@
         <v>16646.1358</v>
       </c>
       <c r="G83" t="n">
-        <v>-579394.2011811015</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2959,15 @@
         <v>36279.12</v>
       </c>
       <c r="G84" t="n">
-        <v>-615673.3211811015</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2989,15 @@
         <v>134013.7817</v>
       </c>
       <c r="G85" t="n">
-        <v>-481659.5394811015</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3019,15 @@
         <v>8595.7274</v>
       </c>
       <c r="G86" t="n">
-        <v>-490255.2668811015</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3049,15 @@
         <v>7870</v>
       </c>
       <c r="G87" t="n">
-        <v>-490255.2668811015</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3079,15 @@
         <v>49797.99</v>
       </c>
       <c r="G88" t="n">
-        <v>-440457.2768811015</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3109,15 @@
         <v>1013246.8957</v>
       </c>
       <c r="G89" t="n">
-        <v>572789.6188188985</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3139,15 @@
         <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>572799.6188188985</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3169,15 @@
         <v>30.1</v>
       </c>
       <c r="G91" t="n">
-        <v>572829.7188188984</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3199,15 @@
         <v>207496.9348</v>
       </c>
       <c r="G92" t="n">
-        <v>365332.7840188984</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3229,15 @@
         <v>23179.86</v>
       </c>
       <c r="G93" t="n">
-        <v>342152.9240188985</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3259,15 @@
         <v>9779.728499999999</v>
       </c>
       <c r="G94" t="n">
-        <v>332373.1955188984</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3289,15 @@
         <v>20000</v>
       </c>
       <c r="G95" t="n">
-        <v>352373.1955188984</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3319,15 @@
         <v>58099.0165</v>
       </c>
       <c r="G96" t="n">
-        <v>352373.1955188984</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3349,15 @@
         <v>103606.7916</v>
       </c>
       <c r="G97" t="n">
-        <v>248766.4039188984</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3379,15 @@
         <v>79097.4204</v>
       </c>
       <c r="G98" t="n">
-        <v>169668.9835188984</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3409,15 @@
         <v>9809.784</v>
       </c>
       <c r="G99" t="n">
-        <v>169668.9835188984</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3439,15 @@
         <v>17800</v>
       </c>
       <c r="G100" t="n">
-        <v>187468.9835188984</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3469,15 @@
         <v>30000</v>
       </c>
       <c r="G101" t="n">
-        <v>217468.9835188984</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3499,15 @@
         <v>8234.5825</v>
       </c>
       <c r="G102" t="n">
-        <v>225703.5660188984</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3529,15 @@
         <v>82</v>
       </c>
       <c r="G103" t="n">
-        <v>225703.5660188984</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3559,15 @@
         <v>8006.3756</v>
       </c>
       <c r="G104" t="n">
-        <v>233709.9416188984</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3589,15 @@
         <v>296232.8874</v>
       </c>
       <c r="G105" t="n">
-        <v>529942.8290188984</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3619,15 @@
         <v>901708.2652</v>
       </c>
       <c r="G106" t="n">
-        <v>1431651.094218899</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3649,15 @@
         <v>33928.7169</v>
       </c>
       <c r="G107" t="n">
-        <v>1431651.094218899</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3679,15 @@
         <v>6900</v>
       </c>
       <c r="G108" t="n">
-        <v>1431651.094218899</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3709,15 @@
         <v>5925</v>
       </c>
       <c r="G109" t="n">
-        <v>1431651.094218899</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3739,15 @@
         <v>11130.2085</v>
       </c>
       <c r="G110" t="n">
-        <v>1431651.094218899</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3769,15 @@
         <v>9534.8963</v>
       </c>
       <c r="G111" t="n">
-        <v>1422116.197918899</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3799,15 @@
         <v>51837.0055</v>
       </c>
       <c r="G112" t="n">
-        <v>1370279.192418899</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3829,15 @@
         <v>165347.9662</v>
       </c>
       <c r="G113" t="n">
-        <v>1204931.226218899</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3859,15 @@
         <v>30363.1799</v>
       </c>
       <c r="G114" t="n">
-        <v>1174568.046318899</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3889,15 @@
         <v>118163.5438</v>
       </c>
       <c r="G115" t="n">
-        <v>1056404.502518899</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3919,15 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>1056414.502518899</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3949,15 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>1056424.502518899</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3979,15 @@
         <v>9600</v>
       </c>
       <c r="G118" t="n">
-        <v>1066024.502518899</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4009,15 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>1066034.502518899</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4039,15 @@
         <v>5421.6296</v>
       </c>
       <c r="G120" t="n">
-        <v>1060612.872918898</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4069,15 @@
         <v>30000</v>
       </c>
       <c r="G121" t="n">
-        <v>1060612.872918898</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4099,15 @@
         <v>1010</v>
       </c>
       <c r="G122" t="n">
-        <v>1061622.872918898</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4129,15 @@
         <v>108329.2783</v>
       </c>
       <c r="G123" t="n">
-        <v>1061622.872918898</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4159,15 @@
         <v>130897.6336</v>
       </c>
       <c r="G124" t="n">
-        <v>930725.2393188984</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4189,15 @@
         <v>1594.2468</v>
       </c>
       <c r="G125" t="n">
-        <v>932319.4861188984</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4219,15 @@
         <v>11863.1807</v>
       </c>
       <c r="G126" t="n">
-        <v>920456.3054188984</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4249,15 @@
         <v>78000</v>
       </c>
       <c r="G127" t="n">
-        <v>998456.3054188984</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4279,15 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>998466.3054188984</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4309,15 @@
         <v>51091.3012</v>
       </c>
       <c r="G129" t="n">
-        <v>1049557.606618898</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4339,15 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>1049547.606618898</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4369,15 @@
         <v>9974.3685</v>
       </c>
       <c r="G131" t="n">
-        <v>1049547.606618898</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4399,15 @@
         <v>1728</v>
       </c>
       <c r="G132" t="n">
-        <v>1051275.606618898</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4429,15 @@
         <v>330</v>
       </c>
       <c r="G133" t="n">
-        <v>1051605.606618898</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4459,15 @@
         <v>166</v>
       </c>
       <c r="G134" t="n">
-        <v>1051605.606618898</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4489,15 @@
         <v>554453.5943</v>
       </c>
       <c r="G135" t="n">
-        <v>497152.0123188985</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4519,15 @@
         <v>172157.8257</v>
       </c>
       <c r="G136" t="n">
-        <v>324994.1866188985</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4549,15 @@
         <v>182040.0874</v>
       </c>
       <c r="G137" t="n">
-        <v>324994.1866188985</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4579,15 @@
         <v>200255.6813</v>
       </c>
       <c r="G138" t="n">
-        <v>124738.5053188985</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4609,15 @@
         <v>16936.4961</v>
       </c>
       <c r="G139" t="n">
-        <v>141675.0014188985</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4639,15 @@
         <v>10650.6396</v>
       </c>
       <c r="G140" t="n">
-        <v>141675.0014188985</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4669,15 @@
         <v>9706.0041</v>
       </c>
       <c r="G141" t="n">
-        <v>151381.0055188985</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4699,15 @@
         <v>320</v>
       </c>
       <c r="G142" t="n">
-        <v>151061.0055188985</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4729,15 @@
         <v>20316.3906</v>
       </c>
       <c r="G143" t="n">
-        <v>130744.6149188985</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4759,15 @@
         <v>10158.1953</v>
       </c>
       <c r="G144" t="n">
-        <v>140902.8102188985</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4789,15 @@
         <v>2731.8047</v>
       </c>
       <c r="G145" t="n">
-        <v>138171.0055188985</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4819,15 @@
         <v>9564.415000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>147735.4205188985</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4849,15 @@
         <v>28727.0471</v>
       </c>
       <c r="G147" t="n">
-        <v>147735.4205188985</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4879,15 @@
         <v>163223.8908</v>
       </c>
       <c r="G148" t="n">
-        <v>147735.4205188985</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4909,15 @@
         <v>45222.3218</v>
       </c>
       <c r="G149" t="n">
-        <v>102513.0987188985</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4939,15 @@
         <v>24870.5899</v>
       </c>
       <c r="G150" t="n">
-        <v>127383.6886188984</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4969,15 @@
         <v>8216.196599999999</v>
       </c>
       <c r="G151" t="n">
-        <v>135599.8852188984</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4999,15 @@
         <v>359129.6912</v>
       </c>
       <c r="G152" t="n">
-        <v>-223529.8059811016</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5029,15 @@
         <v>120485</v>
       </c>
       <c r="G153" t="n">
-        <v>-103044.8059811016</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5059,15 @@
         <v>78000</v>
       </c>
       <c r="G154" t="n">
-        <v>-181044.8059811016</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5089,15 @@
         <v>323206.1375</v>
       </c>
       <c r="G155" t="n">
-        <v>142161.3315188985</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5119,15 @@
         <v>7769.0222</v>
       </c>
       <c r="G156" t="n">
-        <v>149930.3537188985</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5149,15 @@
         <v>59267.9777</v>
       </c>
       <c r="G157" t="n">
-        <v>149930.3537188985</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5179,15 @@
         <v>277161.8648</v>
       </c>
       <c r="G158" t="n">
-        <v>427092.2185188985</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5209,15 @@
         <v>889336.3585</v>
       </c>
       <c r="G159" t="n">
-        <v>1316428.577018898</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5239,15 @@
         <v>350000</v>
       </c>
       <c r="G160" t="n">
-        <v>966428.5770188984</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5269,15 @@
         <v>24424.4262</v>
       </c>
       <c r="G161" t="n">
-        <v>966428.5770188984</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5299,15 @@
         <v>7896.4903</v>
       </c>
       <c r="G162" t="n">
-        <v>974325.0673188984</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5329,15 @@
         <v>8430.5803</v>
       </c>
       <c r="G163" t="n">
-        <v>982755.6476188984</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5359,15 @@
         <v>61271.0492</v>
       </c>
       <c r="G164" t="n">
-        <v>921484.5984188984</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5389,15 @@
         <v>18113.947</v>
       </c>
       <c r="G165" t="n">
-        <v>903370.6514188984</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5419,15 @@
         <v>111705.4736</v>
       </c>
       <c r="G166" t="n">
-        <v>791665.1778188983</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5449,15 @@
         <v>210970.4641</v>
       </c>
       <c r="G167" t="n">
-        <v>791665.1778188983</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5479,15 @@
         <v>209197.603</v>
       </c>
       <c r="G168" t="n">
-        <v>791665.1778188983</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5509,15 @@
         <v>25340.1458</v>
       </c>
       <c r="G169" t="n">
-        <v>766325.0320188983</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5539,15 @@
         <v>42770</v>
       </c>
       <c r="G170" t="n">
-        <v>766325.0320188983</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5569,15 @@
         <v>20082</v>
       </c>
       <c r="G171" t="n">
-        <v>766325.0320188983</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5599,15 @@
         <v>166692.5576</v>
       </c>
       <c r="G172" t="n">
-        <v>933017.5896188982</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5629,15 @@
         <v>3257.0117</v>
       </c>
       <c r="G173" t="n">
-        <v>936274.6013188983</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5659,15 @@
         <v>16667.936</v>
       </c>
       <c r="G174" t="n">
-        <v>952942.5373188982</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5689,15 @@
         <v>41204.0764</v>
       </c>
       <c r="G175" t="n">
-        <v>994146.6137188983</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5719,15 @@
         <v>16492.2877</v>
       </c>
       <c r="G176" t="n">
-        <v>1010638.901418898</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5749,15 @@
         <v>17483.4437</v>
       </c>
       <c r="G177" t="n">
-        <v>993155.4577188983</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5779,15 @@
         <v>105000</v>
       </c>
       <c r="G178" t="n">
-        <v>888155.4577188983</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5809,15 @@
         <v>42687.7846</v>
       </c>
       <c r="G179" t="n">
-        <v>930843.2423188983</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5839,15 @@
         <v>500</v>
       </c>
       <c r="G180" t="n">
-        <v>931343.2423188983</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5869,15 @@
         <v>500</v>
       </c>
       <c r="G181" t="n">
-        <v>931843.2423188983</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5899,15 @@
         <v>2765.3298</v>
       </c>
       <c r="G182" t="n">
-        <v>934608.5721188983</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5929,15 @@
         <v>20500</v>
       </c>
       <c r="G183" t="n">
-        <v>934608.5721188983</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5959,15 @@
         <v>5367.687</v>
       </c>
       <c r="G184" t="n">
-        <v>934608.5721188983</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5989,15 @@
         <v>87778.8091</v>
       </c>
       <c r="G185" t="n">
-        <v>1022387.381218898</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6019,15 @@
         <v>500</v>
       </c>
       <c r="G186" t="n">
-        <v>1022887.381218898</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6049,15 @@
         <v>42581.0651</v>
       </c>
       <c r="G187" t="n">
-        <v>980306.3161188982</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6079,15 @@
         <v>94974.4777</v>
       </c>
       <c r="G188" t="n">
-        <v>1075280.793818898</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6109,15 @@
         <v>105650.1813</v>
       </c>
       <c r="G189" t="n">
-        <v>1180930.975118898</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6139,15 @@
         <v>32662.1664</v>
       </c>
       <c r="G190" t="n">
-        <v>1148268.808718898</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6169,15 @@
         <v>309707.2032</v>
       </c>
       <c r="G191" t="n">
-        <v>838561.6055188983</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6199,15 @@
         <v>23387.8956</v>
       </c>
       <c r="G192" t="n">
-        <v>861949.5011188984</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6229,15 @@
         <v>70325.67140000001</v>
       </c>
       <c r="G193" t="n">
-        <v>791623.8297188984</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6259,15 @@
         <v>0.0004</v>
       </c>
       <c r="G194" t="n">
-        <v>791623.8301188984</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6289,15 @@
         <v>423280.7373</v>
       </c>
       <c r="G195" t="n">
-        <v>791623.8301188984</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6319,15 @@
         <v>500</v>
       </c>
       <c r="G196" t="n">
-        <v>792123.8301188984</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6349,15 @@
         <v>487.2719</v>
       </c>
       <c r="G197" t="n">
-        <v>791636.5582188984</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6379,15 @@
         <v>601843</v>
       </c>
       <c r="G198" t="n">
-        <v>189793.5582188984</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6409,15 @@
         <v>1046859.1277</v>
       </c>
       <c r="G199" t="n">
-        <v>-857065.5694811016</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6439,15 @@
         <v>32772.2522</v>
       </c>
       <c r="G200" t="n">
-        <v>-857065.5694811016</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6469,15 @@
         <v>219297.5591</v>
       </c>
       <c r="G201" t="n">
-        <v>-857065.5694811016</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6499,15 @@
         <v>44353</v>
       </c>
       <c r="G202" t="n">
-        <v>-901418.5694811016</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6529,15 @@
         <v>48711.0736</v>
       </c>
       <c r="G203" t="n">
-        <v>-901418.5694811016</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6559,15 @@
         <v>55294.5336</v>
       </c>
       <c r="G204" t="n">
-        <v>-901418.5694811016</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6589,15 @@
         <v>14194.9272</v>
       </c>
       <c r="G205" t="n">
-        <v>-901418.5694811016</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6619,15 @@
         <v>3101.2662</v>
       </c>
       <c r="G206" t="n">
-        <v>-901418.5694811016</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6649,15 @@
         <v>694894.8944</v>
       </c>
       <c r="G207" t="n">
-        <v>-206523.6750811016</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6679,15 @@
         <v>358381.8114</v>
       </c>
       <c r="G208" t="n">
-        <v>-206523.6750811016</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6709,15 @@
         <v>103906.9571</v>
       </c>
       <c r="G209" t="n">
-        <v>-102616.7179811016</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6739,15 @@
         <v>31840.1431</v>
       </c>
       <c r="G210" t="n">
-        <v>-134456.8610811016</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6769,15 @@
         <v>187307.0116</v>
       </c>
       <c r="G211" t="n">
-        <v>-134456.8610811016</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6799,15 @@
         <v>153020</v>
       </c>
       <c r="G212" t="n">
-        <v>-134456.8610811016</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6829,15 @@
         <v>139121.9999</v>
       </c>
       <c r="G213" t="n">
-        <v>-134456.8610811016</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6859,15 @@
         <v>9261</v>
       </c>
       <c r="G214" t="n">
-        <v>-134456.8610811016</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6889,15 @@
         <v>20926.4033</v>
       </c>
       <c r="G215" t="n">
-        <v>-113530.4577811016</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6919,15 @@
         <v>20000</v>
       </c>
       <c r="G216" t="n">
-        <v>-113530.4577811016</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6949,15 @@
         <v>45290.5154</v>
       </c>
       <c r="G217" t="n">
-        <v>-113530.4577811016</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6979,15 @@
         <v>9554.915499999999</v>
       </c>
       <c r="G218" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7009,15 @@
         <v>367000</v>
       </c>
       <c r="G219" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7039,15 @@
         <v>81307.5768</v>
       </c>
       <c r="G220" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7069,15 @@
         <v>133967.3679</v>
       </c>
       <c r="G221" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7099,15 @@
         <v>21372.904</v>
       </c>
       <c r="G222" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7129,15 @@
         <v>77812.6731</v>
       </c>
       <c r="G223" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7159,15 @@
         <v>22021.4096</v>
       </c>
       <c r="G224" t="n">
-        <v>-123085.3732811016</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7189,15 @@
         <v>108272.7785</v>
       </c>
       <c r="G225" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7219,15 @@
         <v>249000</v>
       </c>
       <c r="G226" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7249,15 @@
         <v>28929.2728</v>
       </c>
       <c r="G227" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7279,15 @@
         <v>323342.5662</v>
       </c>
       <c r="G228" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7309,15 @@
         <v>234679.6851</v>
       </c>
       <c r="G229" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7339,15 @@
         <v>624799.4997</v>
       </c>
       <c r="G230" t="n">
-        <v>-231358.1517811016</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7369,15 @@
         <v>60000</v>
       </c>
       <c r="G231" t="n">
-        <v>-291358.1517811016</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7399,15 @@
         <v>927533.4666</v>
       </c>
       <c r="G232" t="n">
-        <v>-1218891.618381102</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7429,15 @@
         <v>3513.5678</v>
       </c>
       <c r="G233" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7459,15 @@
         <v>354</v>
       </c>
       <c r="G234" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7489,15 @@
         <v>453623.214</v>
       </c>
       <c r="G235" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7519,15 @@
         <v>52586.0561</v>
       </c>
       <c r="G236" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7549,15 @@
         <v>13581.8667</v>
       </c>
       <c r="G237" t="n">
-        <v>-1222405.186181102</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7579,15 @@
         <v>9739.9581</v>
       </c>
       <c r="G238" t="n">
-        <v>-1212665.228081102</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7609,15 @@
         <v>24561.79</v>
       </c>
       <c r="G239" t="n">
-        <v>-1237227.018081102</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7639,15 @@
         <v>91047.3336</v>
       </c>
       <c r="G240" t="n">
-        <v>-1146179.684481102</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7669,15 @@
         <v>25643.2766</v>
       </c>
       <c r="G241" t="n">
-        <v>-1146179.684481102</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7699,15 @@
         <v>3769.489</v>
       </c>
       <c r="G242" t="n">
-        <v>-1149949.173481102</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7729,15 @@
         <v>191.8946</v>
       </c>
       <c r="G243" t="n">
-        <v>-1149949.173481102</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7759,15 @@
         <v>100</v>
       </c>
       <c r="G244" t="n">
-        <v>-1149849.173481102</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7789,15 @@
         <v>201000</v>
       </c>
       <c r="G245" t="n">
-        <v>-948849.1734811019</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7819,15 @@
         <v>200000</v>
       </c>
       <c r="G246" t="n">
-        <v>-948849.1734811019</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7849,15 @@
         <v>519546.4213</v>
       </c>
       <c r="G247" t="n">
-        <v>-1468395.594781102</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7879,15 @@
         <v>101000</v>
       </c>
       <c r="G248" t="n">
-        <v>-1367395.594781102</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7909,15 @@
         <v>180966.8421</v>
       </c>
       <c r="G249" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7939,15 @@
         <v>17637.5347</v>
       </c>
       <c r="G250" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7969,15 @@
         <v>6859</v>
       </c>
       <c r="G251" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7999,15 @@
         <v>150</v>
       </c>
       <c r="G252" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8029,15 @@
         <v>41209.0067</v>
       </c>
       <c r="G253" t="n">
-        <v>-1548362.436881102</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8059,15 @@
         <v>17560.7678</v>
       </c>
       <c r="G254" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8089,15 @@
         <v>28157.9021</v>
       </c>
       <c r="G255" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8119,15 @@
         <v>27474</v>
       </c>
       <c r="G256" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8149,15 @@
         <v>53251.3354</v>
       </c>
       <c r="G257" t="n">
-        <v>-1565923.204681102</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8179,15 @@
         <v>8469.572899999999</v>
       </c>
       <c r="G258" t="n">
-        <v>-1557453.631781102</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8209,15 @@
         <v>64881.6968</v>
       </c>
       <c r="G259" t="n">
-        <v>-1557453.631781102</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8239,15 @@
         <v>147382</v>
       </c>
       <c r="G260" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8269,15 @@
         <v>72292.428</v>
       </c>
       <c r="G261" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8299,15 @@
         <v>75902.6972</v>
       </c>
       <c r="G262" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8329,15 @@
         <v>31668</v>
       </c>
       <c r="G263" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8359,15 @@
         <v>63211</v>
       </c>
       <c r="G264" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8389,15 @@
         <v>57306</v>
       </c>
       <c r="G265" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8419,15 @@
         <v>593938.2497</v>
       </c>
       <c r="G266" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8449,15 @@
         <v>4857.8041</v>
       </c>
       <c r="G267" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8479,15 @@
         <v>2125.2892</v>
       </c>
       <c r="G268" t="n">
-        <v>-1704835.631781102</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8509,15 @@
         <v>558105.2162</v>
       </c>
       <c r="G269" t="n">
-        <v>-1146730.415581102</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8539,15 @@
         <v>16833.7408</v>
       </c>
       <c r="G270" t="n">
-        <v>-1163564.156381102</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8569,15 @@
         <v>101278</v>
       </c>
       <c r="G271" t="n">
-        <v>-1264842.156381102</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8599,15 @@
         <v>8795.480100000001</v>
       </c>
       <c r="G272" t="n">
-        <v>-1256046.676281102</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8629,15 @@
         <v>8791.584699999999</v>
       </c>
       <c r="G273" t="n">
-        <v>-1256046.676281102</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8659,15 @@
         <v>963368.7406</v>
       </c>
       <c r="G274" t="n">
-        <v>-2219415.416881102</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8689,15 @@
         <v>6923.7127</v>
       </c>
       <c r="G275" t="n">
-        <v>-2212491.704181102</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8719,15 @@
         <v>7509.6794</v>
       </c>
       <c r="G276" t="n">
-        <v>-2212491.704181102</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8749,15 @@
         <v>10000</v>
       </c>
       <c r="G277" t="n">
-        <v>-2222491.704181102</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8779,15 @@
         <v>20</v>
       </c>
       <c r="G278" t="n">
-        <v>-2222471.704181102</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8809,15 @@
         <v>120670.1863</v>
       </c>
       <c r="G279" t="n">
-        <v>-2343141.890481102</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8839,15 @@
         <v>10</v>
       </c>
       <c r="G280" t="n">
-        <v>-2343131.890481102</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,22 +8869,15 @@
         <v>10</v>
       </c>
       <c r="G281" t="n">
-        <v>-2343121.890481102</v>
-      </c>
-      <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="J281" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9692,24 +8899,15 @@
         <v>14443.3921</v>
       </c>
       <c r="G282" t="n">
-        <v>-2328678.498381102</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9731,24 +8929,15 @@
         <v>147408.2205</v>
       </c>
       <c r="G283" t="n">
-        <v>-2476086.718881102</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9770,22 +8959,15 @@
         <v>10</v>
       </c>
       <c r="G284" t="n">
-        <v>-2476076.718881102</v>
-      </c>
-      <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J284" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9807,26 +8989,15 @@
         <v>58442.9999</v>
       </c>
       <c r="G285" t="n">
-        <v>-2417633.718981102</v>
-      </c>
-      <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>4.76</v>
-      </c>
-      <c r="J285" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9848,26 +9019,15 @@
         <v>6543.9999</v>
       </c>
       <c r="G286" t="n">
-        <v>-2417633.718981102</v>
-      </c>
-      <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J286" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9889,22 +9049,15 @@
         <v>27815.8866</v>
       </c>
       <c r="G287" t="n">
-        <v>-2417633.718981102</v>
-      </c>
-      <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J287" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9926,26 +9079,15 @@
         <v>20</v>
       </c>
       <c r="G288" t="n">
-        <v>-2417613.718981102</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="J288" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9967,26 +9109,15 @@
         <v>10</v>
       </c>
       <c r="G289" t="n">
-        <v>-2417603.718981102</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="J289" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10008,26 +9139,15 @@
         <v>53013.0434</v>
       </c>
       <c r="G290" t="n">
-        <v>-2364590.675581102</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J290" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10049,26 +9169,15 @@
         <v>8734.8855</v>
       </c>
       <c r="G291" t="n">
-        <v>-2373325.561081102</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="J291" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10090,26 +9199,15 @@
         <v>2602.0404</v>
       </c>
       <c r="G292" t="n">
-        <v>-2370723.520681102</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J292" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
